--- a/data/hake_intrasp_280310.xlsx
+++ b/data/hake_intrasp_280310.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D92EB3D-1861-6B41-B82E-625F3E24B577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7851E97F-C605-2641-AC3F-1348AD7D4FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8680" yWindow="500" windowWidth="38400" windowHeight="42700" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -1564,7 +1564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1576,6 +1576,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1601,7 +1608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1613,6 +1620,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14271,7 +14279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -14603,10 +14611,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14619,316 +14627,324 @@
         <v>488</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1980</v>
       </c>
-      <c r="B2">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="7">
+        <v>7.7910786500000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1981</v>
       </c>
-      <c r="B3">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="7">
+        <v>7.9302527500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1982</v>
       </c>
-      <c r="B4">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>7.7663626399999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1983</v>
       </c>
-      <c r="B5">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>8.3381739100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1984</v>
       </c>
-      <c r="B6">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>7.7257362599999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1985</v>
       </c>
-      <c r="B7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>7.5189010999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1986</v>
       </c>
-      <c r="B8">
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>7.7015434799999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1987</v>
       </c>
-      <c r="B9">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>7.9614065900000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1988</v>
       </c>
-      <c r="B10">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>7.54096703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1989</v>
       </c>
-      <c r="B11">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>7.4454456499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1990</v>
       </c>
-      <c r="B12">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>7.6304835200000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1991</v>
       </c>
-      <c r="B13">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>7.3921977999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1992</v>
       </c>
-      <c r="B14">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>8.0989565199999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1993</v>
       </c>
-      <c r="B15">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <v>7.6743296699999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1994</v>
       </c>
-      <c r="B16">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <v>7.6574285700000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1995</v>
       </c>
-      <c r="B17">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>7.7381758200000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1996</v>
       </c>
-      <c r="B18">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>7.7203152199999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1997</v>
       </c>
-      <c r="B19">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>8.1091318700000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1998</v>
       </c>
-      <c r="B20">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>8.1201428599999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1999</v>
       </c>
-      <c r="B21">
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>7.33834783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2000</v>
       </c>
-      <c r="B22">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>7.4241428599999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2001</v>
       </c>
-      <c r="B23">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>7.0958131900000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2002</v>
       </c>
-      <c r="B24">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>7.2639239099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2003</v>
       </c>
-      <c r="B25">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>7.5445054899999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2004</v>
       </c>
-      <c r="B26">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>7.64548352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2005</v>
       </c>
-      <c r="B27">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>7.8828369599999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2006</v>
       </c>
-      <c r="B28">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>7.7766813199999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2007</v>
       </c>
-      <c r="B29">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <v>7.4721978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2008</v>
       </c>
-      <c r="B30">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>7.1410434800000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2009</v>
       </c>
-      <c r="B31">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <v>7.20131868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2010</v>
       </c>
-      <c r="B32">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <v>7.4271111100000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2011</v>
       </c>
-      <c r="B33">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <v>7.4726153799999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2012</v>
       </c>
-      <c r="B34">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
+        <v>7.2943695699999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2013</v>
       </c>
-      <c r="B35">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <v>7.0181098899999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2014</v>
       </c>
-      <c r="B36">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <v>7.4749340699999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2015</v>
       </c>
-      <c r="B37">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>7.5457142900000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
-      <c r="B38">
-        <v>5.79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>7.3323152199999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2017</v>
       </c>
-      <c r="B39">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>7.3101318700000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
-      <c r="B40">
-        <v>5.47</v>
+      <c r="B40" s="7">
+        <v>7.4305384600000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="7">
+        <v>7.3799565200000004</v>
       </c>
     </row>
   </sheetData>

--- a/data/hake_intrasp_280310.xlsx
+++ b/data/hake_intrasp_280310.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7851E97F-C605-2641-AC3F-1348AD7D4FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3304F-09C2-AC4F-B1D3-59174746FC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="500" windowWidth="38400" windowHeight="42700" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2000" windowWidth="28800" windowHeight="17500" firstSheet="5" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -14613,7 +14613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -14954,10 +14954,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15071,67 +15071,70 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D2">
-        <v>178.85</v>
+        <v>126.1455</v>
       </c>
       <c r="E2">
-        <v>178.85</v>
+        <v>125.4808</v>
       </c>
       <c r="F2">
-        <v>178.85</v>
+        <v>124.1448</v>
       </c>
       <c r="G2">
-        <v>178.85</v>
+        <v>122.24339999999999</v>
       </c>
       <c r="H2">
-        <v>178.85</v>
+        <v>118.321</v>
       </c>
       <c r="I2">
-        <v>178.85</v>
+        <v>111.29989999999999</v>
       </c>
       <c r="J2">
-        <v>178.85</v>
+        <v>107.32980000000001</v>
       </c>
       <c r="K2">
-        <v>178.85</v>
+        <v>106.9545</v>
       </c>
       <c r="L2">
-        <v>178.85</v>
+        <v>110.6833</v>
       </c>
       <c r="M2">
-        <v>178.85</v>
+        <v>118.85590000000001</v>
       </c>
       <c r="N2">
-        <v>178.85</v>
+        <v>131.4879</v>
       </c>
       <c r="O2">
-        <v>178.85</v>
+        <v>148.04499999999999</v>
       </c>
       <c r="P2">
-        <v>178.85</v>
+        <v>167.22630000000001</v>
       </c>
       <c r="Q2">
-        <v>178.85</v>
+        <v>186.94229999999999</v>
       </c>
       <c r="R2">
-        <v>178.85</v>
+        <v>204.64439999999999</v>
       </c>
       <c r="S2">
-        <v>178.85</v>
+        <v>217.95769999999999</v>
       </c>
       <c r="T2">
-        <v>178.85</v>
+        <v>225.3289</v>
       </c>
       <c r="U2">
-        <v>178.85</v>
+        <v>226.36619999999999</v>
       </c>
       <c r="V2">
-        <v>178.85</v>
+        <v>221.74359999999999</v>
       </c>
       <c r="W2">
-        <v>178.85</v>
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X2">
+        <v>201.0616</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -15142,67 +15145,70 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D3">
-        <v>178.85</v>
+        <v>126.1455</v>
       </c>
       <c r="E3">
-        <v>178.85</v>
+        <v>125.4808</v>
       </c>
       <c r="F3">
-        <v>178.85</v>
+        <v>124.1448</v>
       </c>
       <c r="G3">
-        <v>178.85</v>
+        <v>122.24339999999999</v>
       </c>
       <c r="H3">
-        <v>178.85</v>
+        <v>118.321</v>
       </c>
       <c r="I3">
-        <v>178.85</v>
+        <v>111.29989999999999</v>
       </c>
       <c r="J3">
-        <v>178.85</v>
+        <v>107.32980000000001</v>
       </c>
       <c r="K3">
-        <v>178.85</v>
+        <v>106.9545</v>
       </c>
       <c r="L3">
-        <v>178.85</v>
+        <v>110.6833</v>
       </c>
       <c r="M3">
-        <v>178.85</v>
+        <v>118.85590000000001</v>
       </c>
       <c r="N3">
-        <v>178.85</v>
+        <v>131.4879</v>
       </c>
       <c r="O3">
-        <v>178.85</v>
+        <v>148.04499999999999</v>
       </c>
       <c r="P3">
-        <v>178.85</v>
+        <v>167.22630000000001</v>
       </c>
       <c r="Q3">
-        <v>178.85</v>
+        <v>186.94229999999999</v>
       </c>
       <c r="R3">
-        <v>178.85</v>
+        <v>204.64439999999999</v>
       </c>
       <c r="S3">
-        <v>178.85</v>
+        <v>217.95769999999999</v>
       </c>
       <c r="T3">
-        <v>178.85</v>
+        <v>225.3289</v>
       </c>
       <c r="U3">
-        <v>178.85</v>
+        <v>226.36619999999999</v>
       </c>
       <c r="V3">
-        <v>178.85</v>
+        <v>221.74359999999999</v>
       </c>
       <c r="W3">
-        <v>178.85</v>
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X3">
+        <v>201.0616</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -15213,67 +15219,70 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D4">
-        <v>178.85</v>
+        <v>98.492800000000003</v>
       </c>
       <c r="E4">
-        <v>178.85</v>
+        <v>96.543199999999999</v>
       </c>
       <c r="F4">
-        <v>178.85</v>
+        <v>92.692999999999998</v>
       </c>
       <c r="G4">
-        <v>178.85</v>
+        <v>87.265799999999999</v>
       </c>
       <c r="H4">
-        <v>178.85</v>
+        <v>79.953199999999995</v>
       </c>
       <c r="I4">
-        <v>178.85</v>
+        <v>71.131600000000006</v>
       </c>
       <c r="J4">
-        <v>178.85</v>
+        <v>65.597899999999996</v>
       </c>
       <c r="K4">
-        <v>178.85</v>
+        <v>63.941299999999998</v>
       </c>
       <c r="L4">
-        <v>178.85</v>
+        <v>66.706100000000006</v>
       </c>
       <c r="M4">
-        <v>178.85</v>
+        <v>74.498500000000007</v>
       </c>
       <c r="N4">
-        <v>178.85</v>
+        <v>87.907899999999998</v>
       </c>
       <c r="O4">
-        <v>178.85</v>
+        <v>107.06229999999999</v>
       </c>
       <c r="P4">
-        <v>178.85</v>
+        <v>130.85820000000001</v>
       </c>
       <c r="Q4">
-        <v>178.85</v>
+        <v>156.3057</v>
       </c>
       <c r="R4">
-        <v>178.85</v>
+        <v>178.74529999999999</v>
       </c>
       <c r="S4">
-        <v>178.85</v>
+        <v>193.3117</v>
       </c>
       <c r="T4">
-        <v>178.85</v>
+        <v>196.9417</v>
       </c>
       <c r="U4">
-        <v>178.85</v>
+        <v>189.5521</v>
       </c>
       <c r="V4">
-        <v>178.85</v>
+        <v>173.65899999999999</v>
       </c>
       <c r="W4">
-        <v>178.85</v>
+        <v>152.9573</v>
+      </c>
+      <c r="X4">
+        <v>130.83930000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -15284,67 +15293,70 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D5">
-        <v>178.85</v>
+        <v>174.9512</v>
       </c>
       <c r="E5">
-        <v>178.85</v>
+        <v>174.76609999999999</v>
       </c>
       <c r="F5">
-        <v>178.85</v>
+        <v>174.40129999999999</v>
       </c>
       <c r="G5">
-        <v>178.85</v>
+        <v>173.9589</v>
       </c>
       <c r="H5">
-        <v>178.85</v>
+        <v>171.0532</v>
       </c>
       <c r="I5">
-        <v>178.85</v>
+        <v>163.49950000000001</v>
       </c>
       <c r="J5">
-        <v>178.85</v>
+        <v>159.703</v>
       </c>
       <c r="K5">
-        <v>178.85</v>
+        <v>160.1568</v>
       </c>
       <c r="L5">
-        <v>178.85</v>
+        <v>165.3571</v>
       </c>
       <c r="M5">
-        <v>178.85</v>
+        <v>175.57669999999999</v>
       </c>
       <c r="N5">
-        <v>178.85</v>
+        <v>190.67150000000001</v>
       </c>
       <c r="O5">
-        <v>178.85</v>
+        <v>209.89400000000001</v>
       </c>
       <c r="P5">
-        <v>178.85</v>
+        <v>231.77860000000001</v>
       </c>
       <c r="Q5">
-        <v>178.85</v>
+        <v>254.22190000000001</v>
       </c>
       <c r="R5">
-        <v>178.85</v>
+        <v>274.8261</v>
       </c>
       <c r="S5">
-        <v>178.85</v>
+        <v>291.42039999999997</v>
       </c>
       <c r="T5">
-        <v>178.85</v>
+        <v>302.54700000000003</v>
       </c>
       <c r="U5">
-        <v>178.85</v>
+        <v>307.70209999999997</v>
       </c>
       <c r="V5">
-        <v>178.85</v>
+        <v>307.26929999999999</v>
       </c>
       <c r="W5">
-        <v>178.85</v>
+        <v>302.23809999999997</v>
+      </c>
+      <c r="X5">
+        <v>293.83179999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -15355,67 +15367,70 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D6">
-        <v>178.85</v>
+        <v>124.96550000000001</v>
       </c>
       <c r="E6">
-        <v>178.85</v>
+        <v>123.24299999999999</v>
       </c>
       <c r="F6">
-        <v>178.85</v>
+        <v>119.8253</v>
       </c>
       <c r="G6">
-        <v>178.85</v>
+        <v>114.9632</v>
       </c>
       <c r="H6">
-        <v>178.85</v>
+        <v>107.93519999999999</v>
       </c>
       <c r="I6">
-        <v>178.85</v>
+        <v>98.287099999999995</v>
       </c>
       <c r="J6">
-        <v>178.85</v>
+        <v>92.247900000000001</v>
       </c>
       <c r="K6">
-        <v>178.85</v>
+        <v>90.502700000000004</v>
       </c>
       <c r="L6">
-        <v>178.85</v>
+        <v>93.665000000000006</v>
       </c>
       <c r="M6">
-        <v>178.85</v>
+        <v>102.2809</v>
       </c>
       <c r="N6">
-        <v>178.85</v>
+        <v>116.71720000000001</v>
       </c>
       <c r="O6">
-        <v>178.85</v>
+        <v>136.80109999999999</v>
       </c>
       <c r="P6">
-        <v>178.85</v>
+        <v>161.2852</v>
       </c>
       <c r="Q6">
-        <v>178.85</v>
+        <v>187.47559999999999</v>
       </c>
       <c r="R6">
-        <v>178.85</v>
+        <v>211.48089999999999</v>
       </c>
       <c r="S6">
-        <v>178.85</v>
+        <v>229.24029999999999</v>
       </c>
       <c r="T6">
-        <v>178.85</v>
+        <v>237.88409999999999</v>
       </c>
       <c r="U6">
-        <v>178.85</v>
+        <v>236.62710000000001</v>
       </c>
       <c r="V6">
-        <v>178.85</v>
+        <v>226.72550000000001</v>
       </c>
       <c r="W6">
-        <v>178.85</v>
+        <v>210.6893</v>
+      </c>
+      <c r="X6">
+        <v>191.25540000000001</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -15426,67 +15441,70 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D7">
-        <v>178.85</v>
+        <v>88.7196</v>
       </c>
       <c r="E7">
-        <v>178.85</v>
+        <v>87.267300000000006</v>
       </c>
       <c r="F7">
-        <v>178.85</v>
+        <v>84.417199999999994</v>
       </c>
       <c r="G7">
-        <v>178.85</v>
+        <v>80.396199999999993</v>
       </c>
       <c r="H7">
-        <v>178.85</v>
+        <v>74.997399999999999</v>
       </c>
       <c r="I7">
-        <v>178.85</v>
+        <v>67.644199999999998</v>
       </c>
       <c r="J7">
-        <v>178.85</v>
+        <v>62.863999999999997</v>
       </c>
       <c r="K7">
-        <v>178.85</v>
+        <v>61.093000000000004</v>
       </c>
       <c r="L7">
-        <v>178.85</v>
+        <v>62.705599999999997</v>
       </c>
       <c r="M7">
-        <v>178.85</v>
+        <v>68.052400000000006</v>
       </c>
       <c r="N7">
-        <v>178.85</v>
+        <v>77.424400000000006</v>
       </c>
       <c r="O7">
-        <v>178.85</v>
+        <v>90.849500000000006</v>
       </c>
       <c r="P7">
-        <v>178.85</v>
+        <v>107.7466</v>
       </c>
       <c r="Q7">
-        <v>178.85</v>
+        <v>126.6161</v>
       </c>
       <c r="R7">
-        <v>178.85</v>
+        <v>145.05760000000001</v>
       </c>
       <c r="S7">
-        <v>178.85</v>
+        <v>160.2869</v>
       </c>
       <c r="T7">
-        <v>178.85</v>
+        <v>169.98570000000001</v>
       </c>
       <c r="U7">
-        <v>178.85</v>
+        <v>173.0223</v>
       </c>
       <c r="V7">
-        <v>178.85</v>
+        <v>169.65389999999999</v>
       </c>
       <c r="W7">
-        <v>178.85</v>
+        <v>161.19159999999999</v>
+      </c>
+      <c r="X7">
+        <v>149.37389999999999</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -15497,67 +15515,70 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D8">
-        <v>178.85</v>
+        <v>135.7364</v>
       </c>
       <c r="E8">
-        <v>178.85</v>
+        <v>134.64080000000001</v>
       </c>
       <c r="F8">
-        <v>178.85</v>
+        <v>132.44309999999999</v>
       </c>
       <c r="G8">
-        <v>178.85</v>
+        <v>129.2962</v>
       </c>
       <c r="H8">
-        <v>178.85</v>
+        <v>123.8343</v>
       </c>
       <c r="I8">
-        <v>178.85</v>
+        <v>115.24760000000001</v>
       </c>
       <c r="J8">
-        <v>178.85</v>
+        <v>110.18989999999999</v>
       </c>
       <c r="K8">
-        <v>178.85</v>
+        <v>109.3439</v>
       </c>
       <c r="L8">
-        <v>178.85</v>
+        <v>113.3366</v>
       </c>
       <c r="M8">
-        <v>178.85</v>
+        <v>122.6326</v>
       </c>
       <c r="N8">
-        <v>178.85</v>
+        <v>137.36429999999999</v>
       </c>
       <c r="O8">
-        <v>178.85</v>
+        <v>157.01750000000001</v>
       </c>
       <c r="P8">
-        <v>178.85</v>
+        <v>180.07079999999999</v>
       </c>
       <c r="Q8">
-        <v>178.85</v>
+        <v>203.875</v>
       </c>
       <c r="R8">
-        <v>178.85</v>
+        <v>225.04810000000001</v>
       </c>
       <c r="S8">
-        <v>178.85</v>
+        <v>240.37360000000001</v>
       </c>
       <c r="T8">
-        <v>178.85</v>
+        <v>247.7756</v>
       </c>
       <c r="U8">
-        <v>178.85</v>
+        <v>246.8432</v>
       </c>
       <c r="V8">
-        <v>178.85</v>
+        <v>238.67850000000001</v>
       </c>
       <c r="W8">
-        <v>178.85</v>
+        <v>225.27979999999999</v>
+      </c>
+      <c r="X8">
+        <v>208.79150000000001</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -15568,67 +15589,70 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D9">
-        <v>178.85</v>
+        <v>141.94730000000001</v>
       </c>
       <c r="E9">
-        <v>178.85</v>
+        <v>141.9066</v>
       </c>
       <c r="F9">
-        <v>178.85</v>
+        <v>141.83349999999999</v>
       </c>
       <c r="G9">
-        <v>178.85</v>
+        <v>141.80719999999999</v>
       </c>
       <c r="H9">
-        <v>178.85</v>
+        <v>139.8681</v>
       </c>
       <c r="I9">
-        <v>178.85</v>
+        <v>134.08090000000001</v>
       </c>
       <c r="J9">
-        <v>178.85</v>
+        <v>131.26060000000001</v>
       </c>
       <c r="K9">
-        <v>178.85</v>
+        <v>131.7543</v>
       </c>
       <c r="L9">
-        <v>178.85</v>
+        <v>135.92189999999999</v>
       </c>
       <c r="M9">
-        <v>178.85</v>
+        <v>143.952</v>
       </c>
       <c r="N9">
-        <v>178.85</v>
+        <v>155.7124</v>
       </c>
       <c r="O9">
-        <v>178.85</v>
+        <v>170.6183</v>
       </c>
       <c r="P9">
-        <v>178.85</v>
+        <v>187.56139999999999</v>
       </c>
       <c r="Q9">
-        <v>178.85</v>
+        <v>204.98140000000001</v>
       </c>
       <c r="R9">
-        <v>178.85</v>
+        <v>221.11689999999999</v>
       </c>
       <c r="S9">
-        <v>178.85</v>
+        <v>234.3751</v>
       </c>
       <c r="T9">
-        <v>178.85</v>
+        <v>243.66829999999999</v>
       </c>
       <c r="U9">
-        <v>178.85</v>
+        <v>248.58529999999999</v>
       </c>
       <c r="V9">
-        <v>178.85</v>
+        <v>249.34870000000001</v>
       </c>
       <c r="W9">
-        <v>178.85</v>
+        <v>246.62549999999999</v>
+      </c>
+      <c r="X9">
+        <v>241.27199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -15639,67 +15663,70 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D10">
-        <v>178.85</v>
+        <v>106.0604</v>
       </c>
       <c r="E10">
-        <v>178.85</v>
+        <v>104.5821</v>
       </c>
       <c r="F10">
-        <v>178.85</v>
+        <v>101.6985</v>
       </c>
       <c r="G10">
-        <v>178.85</v>
+        <v>97.634</v>
       </c>
       <c r="H10">
-        <v>178.85</v>
+        <v>92.279899999999998</v>
       </c>
       <c r="I10">
-        <v>178.85</v>
+        <v>84.043700000000001</v>
       </c>
       <c r="J10">
-        <v>178.85</v>
+        <v>78.553799999999995</v>
       </c>
       <c r="K10">
-        <v>178.85</v>
+        <v>76.236999999999995</v>
       </c>
       <c r="L10">
-        <v>178.85</v>
+        <v>77.447000000000003</v>
       </c>
       <c r="M10">
-        <v>178.85</v>
+        <v>82.471999999999994</v>
       </c>
       <c r="N10">
-        <v>178.85</v>
+        <v>91.508099999999999</v>
       </c>
       <c r="O10">
-        <v>178.85</v>
+        <v>104.524</v>
       </c>
       <c r="P10">
-        <v>178.85</v>
+        <v>121.03230000000001</v>
       </c>
       <c r="Q10">
-        <v>178.85</v>
+        <v>139.88489999999999</v>
       </c>
       <c r="R10">
-        <v>178.85</v>
+        <v>159.26179999999999</v>
       </c>
       <c r="S10">
-        <v>178.85</v>
+        <v>176.9641</v>
       </c>
       <c r="T10">
-        <v>178.85</v>
+        <v>190.93899999999999</v>
       </c>
       <c r="U10">
-        <v>178.85</v>
+        <v>199.79990000000001</v>
       </c>
       <c r="V10">
-        <v>178.85</v>
+        <v>203.09809999999999</v>
       </c>
       <c r="W10">
-        <v>178.85</v>
+        <v>201.26410000000001</v>
+      </c>
+      <c r="X10">
+        <v>195.29329999999999</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -15710,67 +15737,70 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D11">
-        <v>178.85</v>
+        <v>119.8438</v>
       </c>
       <c r="E11">
-        <v>178.85</v>
+        <v>119.6365</v>
       </c>
       <c r="F11">
-        <v>178.85</v>
+        <v>119.2217</v>
       </c>
       <c r="G11">
-        <v>178.85</v>
+        <v>118.6739</v>
       </c>
       <c r="H11">
-        <v>178.85</v>
+        <v>116.2269</v>
       </c>
       <c r="I11">
-        <v>178.85</v>
+        <v>110.8245</v>
       </c>
       <c r="J11">
-        <v>178.85</v>
+        <v>108.1249</v>
       </c>
       <c r="K11">
-        <v>178.85</v>
+        <v>108.538</v>
       </c>
       <c r="L11">
-        <v>178.85</v>
+        <v>112.4649</v>
       </c>
       <c r="M11">
-        <v>178.85</v>
+        <v>120.1336</v>
       </c>
       <c r="N11">
-        <v>178.85</v>
+        <v>131.44380000000001</v>
       </c>
       <c r="O11">
-        <v>178.85</v>
+        <v>145.80179999999999</v>
       </c>
       <c r="P11">
-        <v>178.85</v>
+        <v>162.0103</v>
       </c>
       <c r="Q11">
-        <v>178.85</v>
+        <v>178.33459999999999</v>
       </c>
       <c r="R11">
-        <v>178.85</v>
+        <v>192.81229999999999</v>
       </c>
       <c r="S11">
-        <v>178.85</v>
+        <v>203.72540000000001</v>
       </c>
       <c r="T11">
-        <v>178.85</v>
+        <v>210.0222</v>
       </c>
       <c r="U11">
-        <v>178.85</v>
+        <v>211.49510000000001</v>
       </c>
       <c r="V11">
-        <v>178.85</v>
+        <v>208.67240000000001</v>
       </c>
       <c r="W11">
-        <v>178.85</v>
+        <v>202.52959999999999</v>
+      </c>
+      <c r="X11">
+        <v>194.1514</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -15781,67 +15811,70 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D12">
-        <v>178.85</v>
+        <v>124.4431</v>
       </c>
       <c r="E12">
-        <v>178.85</v>
+        <v>122.929</v>
       </c>
       <c r="F12">
-        <v>178.85</v>
+        <v>119.92529999999999</v>
       </c>
       <c r="G12">
-        <v>178.85</v>
+        <v>115.6474</v>
       </c>
       <c r="H12">
-        <v>178.85</v>
+        <v>109.3439</v>
       </c>
       <c r="I12">
-        <v>178.85</v>
+        <v>100.1932</v>
       </c>
       <c r="J12">
-        <v>178.85</v>
+        <v>94.456900000000005</v>
       </c>
       <c r="K12">
-        <v>178.85</v>
+        <v>92.7714</v>
       </c>
       <c r="L12">
-        <v>178.85</v>
+        <v>95.703400000000002</v>
       </c>
       <c r="M12">
-        <v>178.85</v>
+        <v>103.7265</v>
       </c>
       <c r="N12">
-        <v>178.85</v>
+        <v>117.11620000000001</v>
       </c>
       <c r="O12">
-        <v>178.85</v>
+        <v>135.65539999999999</v>
       </c>
       <c r="P12">
-        <v>178.85</v>
+        <v>158.2165</v>
       </c>
       <c r="Q12">
-        <v>178.85</v>
+        <v>182.4846</v>
       </c>
       <c r="R12">
-        <v>178.85</v>
+        <v>205.16650000000001</v>
       </c>
       <c r="S12">
-        <v>178.85</v>
+        <v>222.7938</v>
       </c>
       <c r="T12">
-        <v>178.85</v>
+        <v>232.79169999999999</v>
       </c>
       <c r="U12">
-        <v>178.85</v>
+        <v>234.22040000000001</v>
       </c>
       <c r="V12">
-        <v>178.85</v>
+        <v>227.82560000000001</v>
       </c>
       <c r="W12">
-        <v>178.85</v>
+        <v>215.49170000000001</v>
+      </c>
+      <c r="X12">
+        <v>199.44579999999999</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -15852,67 +15885,70 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D13">
-        <v>178.85</v>
+        <v>120.8061</v>
       </c>
       <c r="E13">
-        <v>178.85</v>
+        <v>120.0605</v>
       </c>
       <c r="F13">
-        <v>178.85</v>
+        <v>118.5757</v>
       </c>
       <c r="G13">
-        <v>178.85</v>
+        <v>116.4637</v>
       </c>
       <c r="H13">
-        <v>178.85</v>
+        <v>112.71729999999999</v>
       </c>
       <c r="I13">
-        <v>178.85</v>
+        <v>105.66419999999999</v>
       </c>
       <c r="J13">
-        <v>178.85</v>
+        <v>101.4285</v>
       </c>
       <c r="K13">
-        <v>178.85</v>
+        <v>100.47280000000001</v>
       </c>
       <c r="L13">
-        <v>178.85</v>
+        <v>103.22450000000001</v>
       </c>
       <c r="M13">
-        <v>178.85</v>
+        <v>109.9739</v>
       </c>
       <c r="N13">
-        <v>178.85</v>
+        <v>120.76730000000001</v>
       </c>
       <c r="O13">
-        <v>178.85</v>
+        <v>135.244</v>
       </c>
       <c r="P13">
-        <v>178.85</v>
+        <v>152.46270000000001</v>
       </c>
       <c r="Q13">
-        <v>178.85</v>
+        <v>170.84460000000001</v>
       </c>
       <c r="R13">
-        <v>178.85</v>
+        <v>188.35890000000001</v>
       </c>
       <c r="S13">
-        <v>178.85</v>
+        <v>202.95179999999999</v>
       </c>
       <c r="T13">
-        <v>178.85</v>
+        <v>213.05080000000001</v>
       </c>
       <c r="U13">
-        <v>178.85</v>
+        <v>217.911</v>
       </c>
       <c r="V13">
-        <v>178.85</v>
+        <v>217.66370000000001</v>
       </c>
       <c r="W13">
-        <v>178.85</v>
+        <v>213.1063</v>
+      </c>
+      <c r="X13">
+        <v>205.34800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -15923,67 +15959,70 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D14">
-        <v>178.85</v>
+        <v>118.37179999999999</v>
       </c>
       <c r="E14">
-        <v>178.85</v>
+        <v>117.7453</v>
       </c>
       <c r="F14">
-        <v>178.85</v>
+        <v>116.4927</v>
       </c>
       <c r="G14">
-        <v>178.85</v>
+        <v>114.71339999999999</v>
       </c>
       <c r="H14">
-        <v>178.85</v>
+        <v>111.23569999999999</v>
       </c>
       <c r="I14">
-        <v>178.85</v>
+        <v>104.6224</v>
       </c>
       <c r="J14">
-        <v>178.85</v>
+        <v>100.7739</v>
       </c>
       <c r="K14">
-        <v>178.85</v>
+        <v>100.1502</v>
       </c>
       <c r="L14">
-        <v>178.85</v>
+        <v>103.18170000000001</v>
       </c>
       <c r="M14">
-        <v>178.85</v>
+        <v>110.15389999999999</v>
       </c>
       <c r="N14">
-        <v>178.85</v>
+        <v>121.0872</v>
       </c>
       <c r="O14">
-        <v>178.85</v>
+        <v>135.56540000000001</v>
       </c>
       <c r="P14">
-        <v>178.85</v>
+        <v>152.56710000000001</v>
       </c>
       <c r="Q14">
-        <v>178.85</v>
+        <v>170.4332</v>
       </c>
       <c r="R14">
-        <v>178.85</v>
+        <v>187.0916</v>
       </c>
       <c r="S14">
-        <v>178.85</v>
+        <v>200.52109999999999</v>
       </c>
       <c r="T14">
-        <v>178.85</v>
+        <v>209.261</v>
       </c>
       <c r="U14">
-        <v>178.85</v>
+        <v>212.72559999999999</v>
       </c>
       <c r="V14">
-        <v>178.85</v>
+        <v>211.20509999999999</v>
       </c>
       <c r="W14">
-        <v>178.85</v>
+        <v>205.61179999999999</v>
+      </c>
+      <c r="X14">
+        <v>197.10740000000001</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -15994,67 +16033,70 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D15">
-        <v>178.85</v>
+        <v>129.21039999999999</v>
       </c>
       <c r="E15">
-        <v>178.85</v>
+        <v>129.55359999999999</v>
       </c>
       <c r="F15">
-        <v>178.85</v>
+        <v>130.26900000000001</v>
       </c>
       <c r="G15">
-        <v>178.85</v>
+        <v>131.4315</v>
       </c>
       <c r="H15">
-        <v>178.85</v>
+        <v>130.8347</v>
       </c>
       <c r="I15">
-        <v>178.85</v>
+        <v>126.8557</v>
       </c>
       <c r="J15">
-        <v>178.85</v>
+        <v>125.423</v>
       </c>
       <c r="K15">
-        <v>178.85</v>
+        <v>126.70569999999999</v>
       </c>
       <c r="L15">
-        <v>178.85</v>
+        <v>130.91489999999999</v>
       </c>
       <c r="M15">
-        <v>178.85</v>
+        <v>138.1293</v>
       </c>
       <c r="N15">
-        <v>178.85</v>
+        <v>148.16589999999999</v>
       </c>
       <c r="O15">
-        <v>178.85</v>
+        <v>160.4941</v>
       </c>
       <c r="P15">
-        <v>178.85</v>
+        <v>174.2218</v>
       </c>
       <c r="Q15">
-        <v>178.85</v>
+        <v>188.1876</v>
       </c>
       <c r="R15">
-        <v>178.85</v>
+        <v>201.15880000000001</v>
       </c>
       <c r="S15">
-        <v>178.85</v>
+        <v>212.0737</v>
       </c>
       <c r="T15">
-        <v>178.85</v>
+        <v>220.23650000000001</v>
       </c>
       <c r="U15">
-        <v>178.85</v>
+        <v>225.39660000000001</v>
       </c>
       <c r="V15">
-        <v>178.85</v>
+        <v>227.70179999999999</v>
       </c>
       <c r="W15">
-        <v>178.85</v>
+        <v>227.57300000000001</v>
+      </c>
+      <c r="X15">
+        <v>225.55250000000001</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -16065,1842 +16107,1994 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <v>1993</v>
+      </c>
+      <c r="D16">
+        <v>119.36360000000001</v>
+      </c>
+      <c r="E16">
+        <v>118.12430000000001</v>
+      </c>
+      <c r="F16">
+        <v>115.6494</v>
+      </c>
+      <c r="G16">
+        <v>112.1101</v>
+      </c>
+      <c r="H16">
+        <v>106.51739999999999</v>
+      </c>
+      <c r="I16">
+        <v>98.261499999999998</v>
+      </c>
+      <c r="J16">
+        <v>93.247200000000007</v>
+      </c>
+      <c r="K16">
+        <v>92.106499999999997</v>
+      </c>
+      <c r="L16">
+        <v>95.413200000000003</v>
+      </c>
+      <c r="M16">
+        <v>103.626</v>
+      </c>
+      <c r="N16">
+        <v>116.9542</v>
+      </c>
+      <c r="O16">
+        <v>135.05070000000001</v>
+      </c>
+      <c r="P16">
+        <v>156.61760000000001</v>
+      </c>
+      <c r="Q16">
+        <v>179.20570000000001</v>
+      </c>
+      <c r="R16">
+        <v>199.53200000000001</v>
+      </c>
+      <c r="S16">
+        <v>214.35290000000001</v>
+      </c>
+      <c r="T16">
+        <v>221.49420000000001</v>
+      </c>
+      <c r="U16">
+        <v>220.4562</v>
+      </c>
+      <c r="V16">
+        <v>212.3066</v>
+      </c>
+      <c r="W16">
+        <v>199.05539999999999</v>
+      </c>
+      <c r="X16">
+        <v>182.87309999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>1994</v>
       </c>
-      <c r="D16">
-        <v>178.85</v>
-      </c>
-      <c r="E16">
-        <v>178.85</v>
-      </c>
-      <c r="F16">
-        <v>178.85</v>
-      </c>
-      <c r="G16">
-        <v>178.85</v>
-      </c>
-      <c r="H16">
-        <v>178.85</v>
-      </c>
-      <c r="I16">
-        <v>178.85</v>
-      </c>
-      <c r="J16">
-        <v>178.85</v>
-      </c>
-      <c r="K16">
-        <v>178.85</v>
-      </c>
-      <c r="L16">
-        <v>178.85</v>
-      </c>
-      <c r="M16">
-        <v>178.85</v>
-      </c>
-      <c r="N16">
-        <v>178.85</v>
-      </c>
-      <c r="O16">
-        <v>178.85</v>
-      </c>
-      <c r="P16">
-        <v>178.85</v>
-      </c>
-      <c r="Q16">
-        <v>178.85</v>
-      </c>
-      <c r="R16">
-        <v>178.85</v>
-      </c>
-      <c r="S16">
-        <v>178.85</v>
-      </c>
-      <c r="T16">
-        <v>178.85</v>
-      </c>
-      <c r="U16">
-        <v>178.85</v>
-      </c>
-      <c r="V16">
-        <v>178.85</v>
-      </c>
-      <c r="W16">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="D17">
+        <v>129.4948</v>
+      </c>
+      <c r="E17">
+        <v>129.8939</v>
+      </c>
+      <c r="F17">
+        <v>130.73079999999999</v>
+      </c>
+      <c r="G17">
+        <v>132.0889</v>
+      </c>
+      <c r="H17">
+        <v>131.43790000000001</v>
+      </c>
+      <c r="I17">
+        <v>127.6887</v>
+      </c>
+      <c r="J17">
+        <v>126.55800000000001</v>
+      </c>
+      <c r="K17">
+        <v>128.2311</v>
+      </c>
+      <c r="L17">
+        <v>132.9332</v>
+      </c>
+      <c r="M17">
+        <v>140.74029999999999</v>
+      </c>
+      <c r="N17">
+        <v>151.43430000000001</v>
+      </c>
+      <c r="O17">
+        <v>164.4075</v>
+      </c>
+      <c r="P17">
+        <v>178.65440000000001</v>
+      </c>
+      <c r="Q17">
+        <v>192.89009999999999</v>
+      </c>
+      <c r="R17">
+        <v>205.78870000000001</v>
+      </c>
+      <c r="S17">
+        <v>216.26060000000001</v>
+      </c>
+      <c r="T17">
+        <v>223.65860000000001</v>
+      </c>
+      <c r="U17">
+        <v>227.83709999999999</v>
+      </c>
+      <c r="V17">
+        <v>229.07169999999999</v>
+      </c>
+      <c r="W17">
+        <v>227.899</v>
+      </c>
+      <c r="X17">
+        <v>224.94239999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1995</v>
       </c>
-      <c r="D17">
-        <v>178.85</v>
-      </c>
-      <c r="E17">
-        <v>178.85</v>
-      </c>
-      <c r="F17">
-        <v>178.85</v>
-      </c>
-      <c r="G17">
-        <v>178.85</v>
-      </c>
-      <c r="H17">
-        <v>178.85</v>
-      </c>
-      <c r="I17">
-        <v>178.85</v>
-      </c>
-      <c r="J17">
-        <v>178.85</v>
-      </c>
-      <c r="K17">
-        <v>178.85</v>
-      </c>
-      <c r="L17">
-        <v>178.85</v>
-      </c>
-      <c r="M17">
-        <v>178.85</v>
-      </c>
-      <c r="N17">
-        <v>178.85</v>
-      </c>
-      <c r="O17">
-        <v>178.85</v>
-      </c>
-      <c r="P17">
-        <v>178.85</v>
-      </c>
-      <c r="Q17">
-        <v>178.85</v>
-      </c>
-      <c r="R17">
-        <v>178.85</v>
-      </c>
-      <c r="S17">
-        <v>178.85</v>
-      </c>
-      <c r="T17">
-        <v>178.85</v>
-      </c>
-      <c r="U17">
-        <v>178.85</v>
-      </c>
-      <c r="V17">
-        <v>178.85</v>
-      </c>
-      <c r="W17">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="D18">
+        <v>123.62390000000001</v>
+      </c>
+      <c r="E18">
+        <v>124.3528</v>
+      </c>
+      <c r="F18">
+        <v>125.8903</v>
+      </c>
+      <c r="G18">
+        <v>128.3433</v>
+      </c>
+      <c r="H18">
+        <v>128.8382</v>
+      </c>
+      <c r="I18">
+        <v>126.5689</v>
+      </c>
+      <c r="J18">
+        <v>126.6358</v>
+      </c>
+      <c r="K18">
+        <v>129.01249999999999</v>
+      </c>
+      <c r="L18">
+        <v>133.75069999999999</v>
+      </c>
+      <c r="M18">
+        <v>140.82400000000001</v>
+      </c>
+      <c r="N18">
+        <v>150.02080000000001</v>
+      </c>
+      <c r="O18">
+        <v>160.893</v>
+      </c>
+      <c r="P18">
+        <v>172.77350000000001</v>
+      </c>
+      <c r="Q18">
+        <v>184.86500000000001</v>
+      </c>
+      <c r="R18">
+        <v>196.3768</v>
+      </c>
+      <c r="S18">
+        <v>206.6635</v>
+      </c>
+      <c r="T18">
+        <v>215.31710000000001</v>
+      </c>
+      <c r="U18">
+        <v>222.1876</v>
+      </c>
+      <c r="V18">
+        <v>227.3426</v>
+      </c>
+      <c r="W18">
+        <v>230.99369999999999</v>
+      </c>
+      <c r="X18">
+        <v>233.42590000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>1996</v>
       </c>
-      <c r="D18">
-        <v>178.85</v>
-      </c>
-      <c r="E18">
-        <v>178.85</v>
-      </c>
-      <c r="F18">
-        <v>178.85</v>
-      </c>
-      <c r="G18">
-        <v>178.85</v>
-      </c>
-      <c r="H18">
-        <v>178.85</v>
-      </c>
-      <c r="I18">
-        <v>178.85</v>
-      </c>
-      <c r="J18">
-        <v>178.85</v>
-      </c>
-      <c r="K18">
-        <v>178.85</v>
-      </c>
-      <c r="L18">
-        <v>178.85</v>
-      </c>
-      <c r="M18">
-        <v>178.85</v>
-      </c>
-      <c r="N18">
-        <v>178.85</v>
-      </c>
-      <c r="O18">
-        <v>178.85</v>
-      </c>
-      <c r="P18">
-        <v>178.85</v>
-      </c>
-      <c r="Q18">
-        <v>178.85</v>
-      </c>
-      <c r="R18">
-        <v>178.85</v>
-      </c>
-      <c r="S18">
-        <v>178.85</v>
-      </c>
-      <c r="T18">
-        <v>178.85</v>
-      </c>
-      <c r="U18">
-        <v>178.85</v>
-      </c>
-      <c r="V18">
-        <v>178.85</v>
-      </c>
-      <c r="W18">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="D19">
+        <v>102.11409999999999</v>
+      </c>
+      <c r="E19">
+        <v>100.5271</v>
+      </c>
+      <c r="F19">
+        <v>97.461200000000005</v>
+      </c>
+      <c r="G19">
+        <v>93.177400000000006</v>
+      </c>
+      <c r="H19">
+        <v>87.898799999999994</v>
+      </c>
+      <c r="I19">
+        <v>79.667500000000004</v>
+      </c>
+      <c r="J19">
+        <v>74.014099999999999</v>
+      </c>
+      <c r="K19">
+        <v>71.249300000000005</v>
+      </c>
+      <c r="L19">
+        <v>71.596900000000005</v>
+      </c>
+      <c r="M19">
+        <v>75.220299999999995</v>
+      </c>
+      <c r="N19">
+        <v>82.2286</v>
+      </c>
+      <c r="O19">
+        <v>92.606999999999999</v>
+      </c>
+      <c r="P19">
+        <v>106.0801</v>
+      </c>
+      <c r="Q19">
+        <v>121.97239999999999</v>
+      </c>
+      <c r="R19">
+        <v>139.15950000000001</v>
+      </c>
+      <c r="S19">
+        <v>156.18340000000001</v>
+      </c>
+      <c r="T19">
+        <v>171.5189</v>
+      </c>
+      <c r="U19">
+        <v>183.8939</v>
+      </c>
+      <c r="V19">
+        <v>192.53030000000001</v>
+      </c>
+      <c r="W19">
+        <v>197.22219999999999</v>
+      </c>
+      <c r="X19">
+        <v>198.2552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1997</v>
       </c>
-      <c r="D19">
-        <v>178.85</v>
-      </c>
-      <c r="E19">
-        <v>178.85</v>
-      </c>
-      <c r="F19">
-        <v>178.85</v>
-      </c>
-      <c r="G19">
-        <v>178.85</v>
-      </c>
-      <c r="H19">
-        <v>178.85</v>
-      </c>
-      <c r="I19">
-        <v>178.85</v>
-      </c>
-      <c r="J19">
-        <v>178.85</v>
-      </c>
-      <c r="K19">
-        <v>178.85</v>
-      </c>
-      <c r="L19">
-        <v>178.85</v>
-      </c>
-      <c r="M19">
-        <v>178.85</v>
-      </c>
-      <c r="N19">
-        <v>178.85</v>
-      </c>
-      <c r="O19">
-        <v>178.85</v>
-      </c>
-      <c r="P19">
-        <v>178.85</v>
-      </c>
-      <c r="Q19">
-        <v>178.85</v>
-      </c>
-      <c r="R19">
-        <v>178.85</v>
-      </c>
-      <c r="S19">
-        <v>178.85</v>
-      </c>
-      <c r="T19">
-        <v>178.85</v>
-      </c>
-      <c r="U19">
-        <v>178.85</v>
-      </c>
-      <c r="V19">
-        <v>178.85</v>
-      </c>
-      <c r="W19">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="D20">
+        <v>120.4198</v>
+      </c>
+      <c r="E20">
+        <v>119.697</v>
+      </c>
+      <c r="F20">
+        <v>118.27</v>
+      </c>
+      <c r="G20">
+        <v>116.24890000000001</v>
+      </c>
+      <c r="H20">
+        <v>112.9515</v>
+      </c>
+      <c r="I20">
+        <v>105.95959999999999</v>
+      </c>
+      <c r="J20">
+        <v>101.6062</v>
+      </c>
+      <c r="K20">
+        <v>100.2689</v>
+      </c>
+      <c r="L20">
+        <v>102.2963</v>
+      </c>
+      <c r="M20">
+        <v>107.9173</v>
+      </c>
+      <c r="N20">
+        <v>117.16330000000001</v>
+      </c>
+      <c r="O20">
+        <v>129.75980000000001</v>
+      </c>
+      <c r="P20">
+        <v>145.00800000000001</v>
+      </c>
+      <c r="Q20">
+        <v>161.73769999999999</v>
+      </c>
+      <c r="R20">
+        <v>178.4128</v>
+      </c>
+      <c r="S20">
+        <v>193.40029999999999</v>
+      </c>
+      <c r="T20">
+        <v>205.31559999999999</v>
+      </c>
+      <c r="U20">
+        <v>213.2988</v>
+      </c>
+      <c r="V20">
+        <v>217.11750000000001</v>
+      </c>
+      <c r="W20">
+        <v>217.0898</v>
+      </c>
+      <c r="X20">
+        <v>213.88140000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1998</v>
       </c>
-      <c r="D20">
-        <v>178.85</v>
-      </c>
-      <c r="E20">
-        <v>178.85</v>
-      </c>
-      <c r="F20">
-        <v>178.85</v>
-      </c>
-      <c r="G20">
-        <v>178.85</v>
-      </c>
-      <c r="H20">
-        <v>178.85</v>
-      </c>
-      <c r="I20">
-        <v>178.85</v>
-      </c>
-      <c r="J20">
-        <v>178.85</v>
-      </c>
-      <c r="K20">
-        <v>178.85</v>
-      </c>
-      <c r="L20">
-        <v>178.85</v>
-      </c>
-      <c r="M20">
-        <v>178.85</v>
-      </c>
-      <c r="N20">
-        <v>178.85</v>
-      </c>
-      <c r="O20">
-        <v>178.85</v>
-      </c>
-      <c r="P20">
-        <v>178.85</v>
-      </c>
-      <c r="Q20">
-        <v>178.85</v>
-      </c>
-      <c r="R20">
-        <v>178.85</v>
-      </c>
-      <c r="S20">
-        <v>178.85</v>
-      </c>
-      <c r="T20">
-        <v>178.85</v>
-      </c>
-      <c r="U20">
-        <v>178.85</v>
-      </c>
-      <c r="V20">
-        <v>178.85</v>
-      </c>
-      <c r="W20">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="D21">
+        <v>104.9862</v>
+      </c>
+      <c r="E21">
+        <v>103.21980000000001</v>
+      </c>
+      <c r="F21">
+        <v>99.766800000000003</v>
+      </c>
+      <c r="G21">
+        <v>94.908100000000005</v>
+      </c>
+      <c r="H21">
+        <v>88.516000000000005</v>
+      </c>
+      <c r="I21">
+        <v>79.714299999999994</v>
+      </c>
+      <c r="J21">
+        <v>73.920100000000005</v>
+      </c>
+      <c r="K21">
+        <v>71.619900000000001</v>
+      </c>
+      <c r="L21">
+        <v>73.222499999999997</v>
+      </c>
+      <c r="M21">
+        <v>79.109200000000001</v>
+      </c>
+      <c r="N21">
+        <v>89.6066</v>
+      </c>
+      <c r="O21">
+        <v>104.779</v>
+      </c>
+      <c r="P21">
+        <v>124.06019999999999</v>
+      </c>
+      <c r="Q21">
+        <v>145.90539999999999</v>
+      </c>
+      <c r="R21">
+        <v>167.76179999999999</v>
+      </c>
+      <c r="S21">
+        <v>186.5615</v>
+      </c>
+      <c r="T21">
+        <v>199.60079999999999</v>
+      </c>
+      <c r="U21">
+        <v>205.35069999999999</v>
+      </c>
+      <c r="V21">
+        <v>203.77539999999999</v>
+      </c>
+      <c r="W21">
+        <v>196.06899999999999</v>
+      </c>
+      <c r="X21">
+        <v>184.0309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>1999</v>
       </c>
-      <c r="D21">
-        <v>178.85</v>
-      </c>
-      <c r="E21">
-        <v>178.85</v>
-      </c>
-      <c r="F21">
-        <v>178.85</v>
-      </c>
-      <c r="G21">
-        <v>178.85</v>
-      </c>
-      <c r="H21">
-        <v>178.85</v>
-      </c>
-      <c r="I21">
-        <v>178.85</v>
-      </c>
-      <c r="J21">
-        <v>178.85</v>
-      </c>
-      <c r="K21">
-        <v>178.85</v>
-      </c>
-      <c r="L21">
-        <v>178.85</v>
-      </c>
-      <c r="M21">
-        <v>178.85</v>
-      </c>
-      <c r="N21">
-        <v>178.85</v>
-      </c>
-      <c r="O21">
-        <v>178.85</v>
-      </c>
-      <c r="P21">
-        <v>178.85</v>
-      </c>
-      <c r="Q21">
-        <v>178.85</v>
-      </c>
-      <c r="R21">
-        <v>178.85</v>
-      </c>
-      <c r="S21">
-        <v>178.85</v>
-      </c>
-      <c r="T21">
-        <v>178.85</v>
-      </c>
-      <c r="U21">
-        <v>178.85</v>
-      </c>
-      <c r="V21">
-        <v>178.85</v>
-      </c>
-      <c r="W21">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="D22">
+        <v>107.2296</v>
+      </c>
+      <c r="E22">
+        <v>108.8289</v>
+      </c>
+      <c r="F22">
+        <v>112.24509999999999</v>
+      </c>
+      <c r="G22">
+        <v>117.7166</v>
+      </c>
+      <c r="H22">
+        <v>122.24209999999999</v>
+      </c>
+      <c r="I22">
+        <v>124.321</v>
+      </c>
+      <c r="J22">
+        <v>127.6748</v>
+      </c>
+      <c r="K22">
+        <v>131.2843</v>
+      </c>
+      <c r="L22">
+        <v>134.42609999999999</v>
+      </c>
+      <c r="M22">
+        <v>136.8665</v>
+      </c>
+      <c r="N22">
+        <v>138.9212</v>
+      </c>
+      <c r="O22">
+        <v>141.32499999999999</v>
+      </c>
+      <c r="P22">
+        <v>144.9966</v>
+      </c>
+      <c r="Q22">
+        <v>150.83090000000001</v>
+      </c>
+      <c r="R22">
+        <v>159.58320000000001</v>
+      </c>
+      <c r="S22">
+        <v>171.833</v>
+      </c>
+      <c r="T22">
+        <v>187.9838</v>
+      </c>
+      <c r="U22">
+        <v>208.26499999999999</v>
+      </c>
+      <c r="V22">
+        <v>232.72659999999999</v>
+      </c>
+      <c r="W22">
+        <v>261.23160000000001</v>
+      </c>
+      <c r="X22">
+        <v>293.56049999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>2000</v>
       </c>
-      <c r="D22">
-        <v>178.85</v>
-      </c>
-      <c r="E22">
-        <v>178.85</v>
-      </c>
-      <c r="F22">
-        <v>178.85</v>
-      </c>
-      <c r="G22">
-        <v>178.85</v>
-      </c>
-      <c r="H22">
-        <v>178.85</v>
-      </c>
-      <c r="I22">
-        <v>178.85</v>
-      </c>
-      <c r="J22">
-        <v>178.85</v>
-      </c>
-      <c r="K22">
-        <v>178.85</v>
-      </c>
-      <c r="L22">
-        <v>178.85</v>
-      </c>
-      <c r="M22">
-        <v>178.85</v>
-      </c>
-      <c r="N22">
-        <v>178.85</v>
-      </c>
-      <c r="O22">
-        <v>178.85</v>
-      </c>
-      <c r="P22">
-        <v>178.85</v>
-      </c>
-      <c r="Q22">
-        <v>178.85</v>
-      </c>
-      <c r="R22">
-        <v>178.85</v>
-      </c>
-      <c r="S22">
-        <v>178.85</v>
-      </c>
-      <c r="T22">
-        <v>178.85</v>
-      </c>
-      <c r="U22">
-        <v>178.85</v>
-      </c>
-      <c r="V22">
-        <v>178.85</v>
-      </c>
-      <c r="W22">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="D23">
+        <v>127.1459</v>
+      </c>
+      <c r="E23">
+        <v>126.9455</v>
+      </c>
+      <c r="F23">
+        <v>126.54519999999999</v>
+      </c>
+      <c r="G23">
+        <v>126.0232</v>
+      </c>
+      <c r="H23">
+        <v>123.52760000000001</v>
+      </c>
+      <c r="I23">
+        <v>117.8519</v>
+      </c>
+      <c r="J23">
+        <v>115.01600000000001</v>
+      </c>
+      <c r="K23">
+        <v>115.4395</v>
+      </c>
+      <c r="L23">
+        <v>119.5347</v>
+      </c>
+      <c r="M23">
+        <v>127.5342</v>
+      </c>
+      <c r="N23">
+        <v>139.3313</v>
+      </c>
+      <c r="O23">
+        <v>154.31290000000001</v>
+      </c>
+      <c r="P23">
+        <v>171.25049999999999</v>
+      </c>
+      <c r="Q23">
+        <v>188.3682</v>
+      </c>
+      <c r="R23">
+        <v>203.65459999999999</v>
+      </c>
+      <c r="S23">
+        <v>215.3373</v>
+      </c>
+      <c r="T23">
+        <v>222.31100000000001</v>
+      </c>
+      <c r="U23">
+        <v>224.32259999999999</v>
+      </c>
+      <c r="V23">
+        <v>221.87270000000001</v>
+      </c>
+      <c r="W23">
+        <v>215.93020000000001</v>
+      </c>
+      <c r="X23">
+        <v>207.5924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>2001</v>
       </c>
-      <c r="D23">
-        <v>178.85</v>
-      </c>
-      <c r="E23">
-        <v>178.85</v>
-      </c>
-      <c r="F23">
-        <v>178.85</v>
-      </c>
-      <c r="G23">
-        <v>178.85</v>
-      </c>
-      <c r="H23">
-        <v>178.85</v>
-      </c>
-      <c r="I23">
-        <v>178.85</v>
-      </c>
-      <c r="J23">
-        <v>178.85</v>
-      </c>
-      <c r="K23">
-        <v>178.85</v>
-      </c>
-      <c r="L23">
-        <v>178.85</v>
-      </c>
-      <c r="M23">
-        <v>178.85</v>
-      </c>
-      <c r="N23">
-        <v>178.85</v>
-      </c>
-      <c r="O23">
-        <v>178.85</v>
-      </c>
-      <c r="P23">
-        <v>178.85</v>
-      </c>
-      <c r="Q23">
-        <v>178.85</v>
-      </c>
-      <c r="R23">
-        <v>178.85</v>
-      </c>
-      <c r="S23">
-        <v>178.85</v>
-      </c>
-      <c r="T23">
-        <v>178.85</v>
-      </c>
-      <c r="U23">
-        <v>178.85</v>
-      </c>
-      <c r="V23">
-        <v>178.85</v>
-      </c>
-      <c r="W23">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="D24">
+        <v>123.501</v>
+      </c>
+      <c r="E24">
+        <v>122.46299999999999</v>
+      </c>
+      <c r="F24">
+        <v>120.3989</v>
+      </c>
+      <c r="G24">
+        <v>117.45480000000001</v>
+      </c>
+      <c r="H24">
+        <v>112.7179</v>
+      </c>
+      <c r="I24">
+        <v>104.776</v>
+      </c>
+      <c r="J24">
+        <v>99.891400000000004</v>
+      </c>
+      <c r="K24">
+        <v>98.602400000000003</v>
+      </c>
+      <c r="L24">
+        <v>101.39570000000001</v>
+      </c>
+      <c r="M24">
+        <v>108.628</v>
+      </c>
+      <c r="N24">
+        <v>120.4192</v>
+      </c>
+      <c r="O24">
+        <v>136.447</v>
+      </c>
+      <c r="P24">
+        <v>155.69710000000001</v>
+      </c>
+      <c r="Q24">
+        <v>176.3415</v>
+      </c>
+      <c r="R24">
+        <v>195.93170000000001</v>
+      </c>
+      <c r="S24">
+        <v>211.9409</v>
+      </c>
+      <c r="T24">
+        <v>222.43690000000001</v>
+      </c>
+      <c r="U24">
+        <v>226.55439999999999</v>
+      </c>
+      <c r="V24">
+        <v>224.5609</v>
+      </c>
+      <c r="W24">
+        <v>217.5608</v>
+      </c>
+      <c r="X24">
+        <v>207.01320000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>2002</v>
       </c>
-      <c r="D24">
-        <v>178.85</v>
-      </c>
-      <c r="E24">
-        <v>178.85</v>
-      </c>
-      <c r="F24">
-        <v>178.85</v>
-      </c>
-      <c r="G24">
-        <v>178.85</v>
-      </c>
-      <c r="H24">
-        <v>178.85</v>
-      </c>
-      <c r="I24">
-        <v>178.85</v>
-      </c>
-      <c r="J24">
-        <v>178.85</v>
-      </c>
-      <c r="K24">
-        <v>178.85</v>
-      </c>
-      <c r="L24">
-        <v>178.85</v>
-      </c>
-      <c r="M24">
-        <v>178.85</v>
-      </c>
-      <c r="N24">
-        <v>178.85</v>
-      </c>
-      <c r="O24">
-        <v>178.85</v>
-      </c>
-      <c r="P24">
-        <v>178.85</v>
-      </c>
-      <c r="Q24">
-        <v>178.85</v>
-      </c>
-      <c r="R24">
-        <v>178.85</v>
-      </c>
-      <c r="S24">
-        <v>178.85</v>
-      </c>
-      <c r="T24">
-        <v>178.85</v>
-      </c>
-      <c r="U24">
-        <v>178.85</v>
-      </c>
-      <c r="V24">
-        <v>178.85</v>
-      </c>
-      <c r="W24">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="D25">
+        <v>111.2907</v>
+      </c>
+      <c r="E25">
+        <v>109.8056</v>
+      </c>
+      <c r="F25">
+        <v>106.8874</v>
+      </c>
+      <c r="G25">
+        <v>102.7556</v>
+      </c>
+      <c r="H25">
+        <v>97.056700000000006</v>
+      </c>
+      <c r="I25">
+        <v>88.563100000000006</v>
+      </c>
+      <c r="J25">
+        <v>83.040099999999995</v>
+      </c>
+      <c r="K25">
+        <v>80.990499999999997</v>
+      </c>
+      <c r="L25">
+        <v>82.846000000000004</v>
+      </c>
+      <c r="M25">
+        <v>88.966899999999995</v>
+      </c>
+      <c r="N25">
+        <v>99.589799999999997</v>
+      </c>
+      <c r="O25">
+        <v>114.6357</v>
+      </c>
+      <c r="P25">
+        <v>133.40700000000001</v>
+      </c>
+      <c r="Q25">
+        <v>154.3441</v>
+      </c>
+      <c r="R25">
+        <v>175.07509999999999</v>
+      </c>
+      <c r="S25">
+        <v>192.88300000000001</v>
+      </c>
+      <c r="T25">
+        <v>205.44290000000001</v>
+      </c>
+      <c r="U25">
+        <v>211.45590000000001</v>
+      </c>
+      <c r="V25">
+        <v>210.87809999999999</v>
+      </c>
+      <c r="W25">
+        <v>204.69499999999999</v>
+      </c>
+      <c r="X25">
+        <v>194.41569999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>2003</v>
       </c>
-      <c r="D25">
-        <v>178.85</v>
-      </c>
-      <c r="E25">
-        <v>178.85</v>
-      </c>
-      <c r="F25">
-        <v>178.85</v>
-      </c>
-      <c r="G25">
-        <v>178.85</v>
-      </c>
-      <c r="H25">
-        <v>178.85</v>
-      </c>
-      <c r="I25">
-        <v>178.85</v>
-      </c>
-      <c r="J25">
-        <v>178.85</v>
-      </c>
-      <c r="K25">
-        <v>178.85</v>
-      </c>
-      <c r="L25">
-        <v>178.85</v>
-      </c>
-      <c r="M25">
-        <v>178.85</v>
-      </c>
-      <c r="N25">
-        <v>178.85</v>
-      </c>
-      <c r="O25">
-        <v>178.85</v>
-      </c>
-      <c r="P25">
-        <v>178.85</v>
-      </c>
-      <c r="Q25">
-        <v>178.85</v>
-      </c>
-      <c r="R25">
-        <v>178.85</v>
-      </c>
-      <c r="S25">
-        <v>178.85</v>
-      </c>
-      <c r="T25">
-        <v>178.85</v>
-      </c>
-      <c r="U25">
-        <v>178.85</v>
-      </c>
-      <c r="V25">
-        <v>178.85</v>
-      </c>
-      <c r="W25">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="D26">
+        <v>103.8365</v>
+      </c>
+      <c r="E26">
+        <v>101.91249999999999</v>
+      </c>
+      <c r="F26">
+        <v>98.209599999999995</v>
+      </c>
+      <c r="G26">
+        <v>93.054100000000005</v>
+      </c>
+      <c r="H26">
+        <v>86.770700000000005</v>
+      </c>
+      <c r="I26">
+        <v>77.719800000000006</v>
+      </c>
+      <c r="J26">
+        <v>71.498999999999995</v>
+      </c>
+      <c r="K26">
+        <v>68.481399999999994</v>
+      </c>
+      <c r="L26">
+        <v>68.947299999999998</v>
+      </c>
+      <c r="M26">
+        <v>73.145200000000003</v>
+      </c>
+      <c r="N26">
+        <v>81.308599999999998</v>
+      </c>
+      <c r="O26">
+        <v>93.549000000000007</v>
+      </c>
+      <c r="P26">
+        <v>109.6296</v>
+      </c>
+      <c r="Q26">
+        <v>128.7107</v>
+      </c>
+      <c r="R26">
+        <v>149.233</v>
+      </c>
+      <c r="S26">
+        <v>169.08539999999999</v>
+      </c>
+      <c r="T26">
+        <v>186.0598</v>
+      </c>
+      <c r="U26">
+        <v>198.40700000000001</v>
+      </c>
+      <c r="V26">
+        <v>205.22890000000001</v>
+      </c>
+      <c r="W26">
+        <v>206.5592</v>
+      </c>
+      <c r="X26">
+        <v>203.14449999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>2004</v>
       </c>
-      <c r="D26">
-        <v>178.85</v>
-      </c>
-      <c r="E26">
-        <v>178.85</v>
-      </c>
-      <c r="F26">
-        <v>178.85</v>
-      </c>
-      <c r="G26">
-        <v>178.85</v>
-      </c>
-      <c r="H26">
-        <v>178.85</v>
-      </c>
-      <c r="I26">
-        <v>178.85</v>
-      </c>
-      <c r="J26">
-        <v>178.85</v>
-      </c>
-      <c r="K26">
-        <v>178.85</v>
-      </c>
-      <c r="L26">
-        <v>178.85</v>
-      </c>
-      <c r="M26">
-        <v>178.85</v>
-      </c>
-      <c r="N26">
-        <v>178.85</v>
-      </c>
-      <c r="O26">
-        <v>178.85</v>
-      </c>
-      <c r="P26">
-        <v>178.85</v>
-      </c>
-      <c r="Q26">
-        <v>178.85</v>
-      </c>
-      <c r="R26">
-        <v>178.85</v>
-      </c>
-      <c r="S26">
-        <v>178.85</v>
-      </c>
-      <c r="T26">
-        <v>178.85</v>
-      </c>
-      <c r="U26">
-        <v>178.85</v>
-      </c>
-      <c r="V26">
-        <v>178.85</v>
-      </c>
-      <c r="W26">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="D27">
+        <v>102.8034</v>
+      </c>
+      <c r="E27">
+        <v>101.3604</v>
+      </c>
+      <c r="F27">
+        <v>98.461200000000005</v>
+      </c>
+      <c r="G27">
+        <v>94.302300000000002</v>
+      </c>
+      <c r="H27">
+        <v>87.9131</v>
+      </c>
+      <c r="I27">
+        <v>79.910899999999998</v>
+      </c>
+      <c r="J27">
+        <v>75.230099999999993</v>
+      </c>
+      <c r="K27">
+        <v>74.656800000000004</v>
+      </c>
+      <c r="L27">
+        <v>78.958799999999997</v>
+      </c>
+      <c r="M27">
+        <v>88.873800000000003</v>
+      </c>
+      <c r="N27">
+        <v>104.861</v>
+      </c>
+      <c r="O27">
+        <v>126.42659999999999</v>
+      </c>
+      <c r="P27">
+        <v>151.2191</v>
+      </c>
+      <c r="Q27">
+        <v>174.6815</v>
+      </c>
+      <c r="R27">
+        <v>191.1542</v>
+      </c>
+      <c r="S27">
+        <v>196.26669999999999</v>
+      </c>
+      <c r="T27">
+        <v>188.994</v>
+      </c>
+      <c r="U27">
+        <v>171.80969999999999</v>
+      </c>
+      <c r="V27">
+        <v>149.05260000000001</v>
+      </c>
+      <c r="W27">
+        <v>124.95350000000001</v>
+      </c>
+      <c r="X27">
+        <v>102.41289999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>2005</v>
       </c>
-      <c r="D27">
-        <v>178.85</v>
-      </c>
-      <c r="E27">
-        <v>178.85</v>
-      </c>
-      <c r="F27">
-        <v>178.85</v>
-      </c>
-      <c r="G27">
-        <v>178.85</v>
-      </c>
-      <c r="H27">
-        <v>178.85</v>
-      </c>
-      <c r="I27">
-        <v>178.85</v>
-      </c>
-      <c r="J27">
-        <v>178.85</v>
-      </c>
-      <c r="K27">
-        <v>178.85</v>
-      </c>
-      <c r="L27">
-        <v>178.85</v>
-      </c>
-      <c r="M27">
-        <v>178.85</v>
-      </c>
-      <c r="N27">
-        <v>178.85</v>
-      </c>
-      <c r="O27">
-        <v>178.85</v>
-      </c>
-      <c r="P27">
-        <v>178.85</v>
-      </c>
-      <c r="Q27">
-        <v>178.85</v>
-      </c>
-      <c r="R27">
-        <v>178.85</v>
-      </c>
-      <c r="S27">
-        <v>178.85</v>
-      </c>
-      <c r="T27">
-        <v>178.85</v>
-      </c>
-      <c r="U27">
-        <v>178.85</v>
-      </c>
-      <c r="V27">
-        <v>178.85</v>
-      </c>
-      <c r="W27">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="D28">
+        <v>109.1776</v>
+      </c>
+      <c r="E28">
+        <v>107.5463</v>
+      </c>
+      <c r="F28">
+        <v>104.4435</v>
+      </c>
+      <c r="G28">
+        <v>100.1343</v>
+      </c>
+      <c r="H28">
+        <v>95.289900000000003</v>
+      </c>
+      <c r="I28">
+        <v>86.613100000000003</v>
+      </c>
+      <c r="J28">
+        <v>80.429299999999998</v>
+      </c>
+      <c r="K28">
+        <v>77.009600000000006</v>
+      </c>
+      <c r="L28">
+        <v>76.545199999999994</v>
+      </c>
+      <c r="M28">
+        <v>79.156999999999996</v>
+      </c>
+      <c r="N28">
+        <v>84.907899999999998</v>
+      </c>
+      <c r="O28">
+        <v>93.767499999999998</v>
+      </c>
+      <c r="P28">
+        <v>105.5288</v>
+      </c>
+      <c r="Q28">
+        <v>119.71429999999999</v>
+      </c>
+      <c r="R28">
+        <v>135.5316</v>
+      </c>
+      <c r="S28">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="T28">
+        <v>167.72190000000001</v>
+      </c>
+      <c r="U28">
+        <v>181.845</v>
+      </c>
+      <c r="V28">
+        <v>193.48439999999999</v>
+      </c>
+      <c r="W28">
+        <v>202.19990000000001</v>
+      </c>
+      <c r="X28">
+        <v>207.93360000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>2006</v>
       </c>
-      <c r="D28">
-        <v>178.85</v>
-      </c>
-      <c r="E28">
-        <v>178.85</v>
-      </c>
-      <c r="F28">
-        <v>178.85</v>
-      </c>
-      <c r="G28">
-        <v>178.85</v>
-      </c>
-      <c r="H28">
-        <v>178.85</v>
-      </c>
-      <c r="I28">
-        <v>178.85</v>
-      </c>
-      <c r="J28">
-        <v>178.85</v>
-      </c>
-      <c r="K28">
-        <v>178.85</v>
-      </c>
-      <c r="L28">
-        <v>178.85</v>
-      </c>
-      <c r="M28">
-        <v>178.85</v>
-      </c>
-      <c r="N28">
-        <v>178.85</v>
-      </c>
-      <c r="O28">
-        <v>178.85</v>
-      </c>
-      <c r="P28">
-        <v>178.85</v>
-      </c>
-      <c r="Q28">
-        <v>178.85</v>
-      </c>
-      <c r="R28">
-        <v>178.85</v>
-      </c>
-      <c r="S28">
-        <v>178.85</v>
-      </c>
-      <c r="T28">
-        <v>178.85</v>
-      </c>
-      <c r="U28">
-        <v>178.85</v>
-      </c>
-      <c r="V28">
-        <v>178.85</v>
-      </c>
-      <c r="W28">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="D29">
+        <v>126.17059999999999</v>
+      </c>
+      <c r="E29">
+        <v>126.87779999999999</v>
+      </c>
+      <c r="F29">
+        <v>128.369</v>
+      </c>
+      <c r="G29">
+        <v>130.7499</v>
+      </c>
+      <c r="H29">
+        <v>131.11869999999999</v>
+      </c>
+      <c r="I29">
+        <v>128.6634</v>
+      </c>
+      <c r="J29">
+        <v>128.61689999999999</v>
+      </c>
+      <c r="K29">
+        <v>130.9795</v>
+      </c>
+      <c r="L29">
+        <v>135.82570000000001</v>
+      </c>
+      <c r="M29">
+        <v>143.13910000000001</v>
+      </c>
+      <c r="N29">
+        <v>152.6985</v>
+      </c>
+      <c r="O29">
+        <v>164.02080000000001</v>
+      </c>
+      <c r="P29">
+        <v>176.3784</v>
+      </c>
+      <c r="Q29">
+        <v>188.89709999999999</v>
+      </c>
+      <c r="R29">
+        <v>200.7089</v>
+      </c>
+      <c r="S29">
+        <v>211.10980000000001</v>
+      </c>
+      <c r="T29">
+        <v>219.66380000000001</v>
+      </c>
+      <c r="U29">
+        <v>226.22620000000001</v>
+      </c>
+      <c r="V29">
+        <v>230.89590000000001</v>
+      </c>
+      <c r="W29">
+        <v>233.9297</v>
+      </c>
+      <c r="X29">
+        <v>235.65870000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>2007</v>
       </c>
-      <c r="D29">
-        <v>178.85</v>
-      </c>
-      <c r="E29">
-        <v>178.85</v>
-      </c>
-      <c r="F29">
-        <v>178.85</v>
-      </c>
-      <c r="G29">
-        <v>178.85</v>
-      </c>
-      <c r="H29">
-        <v>178.85</v>
-      </c>
-      <c r="I29">
-        <v>178.85</v>
-      </c>
-      <c r="J29">
-        <v>178.85</v>
-      </c>
-      <c r="K29">
-        <v>178.85</v>
-      </c>
-      <c r="L29">
-        <v>178.85</v>
-      </c>
-      <c r="M29">
-        <v>178.85</v>
-      </c>
-      <c r="N29">
-        <v>178.85</v>
-      </c>
-      <c r="O29">
-        <v>178.85</v>
-      </c>
-      <c r="P29">
-        <v>178.85</v>
-      </c>
-      <c r="Q29">
-        <v>178.85</v>
-      </c>
-      <c r="R29">
-        <v>178.85</v>
-      </c>
-      <c r="S29">
-        <v>178.85</v>
-      </c>
-      <c r="T29">
-        <v>178.85</v>
-      </c>
-      <c r="U29">
-        <v>178.85</v>
-      </c>
-      <c r="V29">
-        <v>178.85</v>
-      </c>
-      <c r="W29">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="D30">
+        <v>133.08260000000001</v>
+      </c>
+      <c r="E30">
+        <v>133.5899</v>
+      </c>
+      <c r="F30">
+        <v>134.65979999999999</v>
+      </c>
+      <c r="G30">
+        <v>136.3896</v>
+      </c>
+      <c r="H30">
+        <v>135.83279999999999</v>
+      </c>
+      <c r="I30">
+        <v>132.37610000000001</v>
+      </c>
+      <c r="J30">
+        <v>131.64689999999999</v>
+      </c>
+      <c r="K30">
+        <v>133.82230000000001</v>
+      </c>
+      <c r="L30">
+        <v>139.12270000000001</v>
+      </c>
+      <c r="M30">
+        <v>147.60650000000001</v>
+      </c>
+      <c r="N30">
+        <v>159.011</v>
+      </c>
+      <c r="O30">
+        <v>172.654</v>
+      </c>
+      <c r="P30">
+        <v>187.4385</v>
+      </c>
+      <c r="Q30">
+        <v>201.9999</v>
+      </c>
+      <c r="R30">
+        <v>214.97620000000001</v>
+      </c>
+      <c r="S30">
+        <v>225.3022</v>
+      </c>
+      <c r="T30">
+        <v>232.40610000000001</v>
+      </c>
+      <c r="U30">
+        <v>236.2413</v>
+      </c>
+      <c r="V30">
+        <v>237.17500000000001</v>
+      </c>
+      <c r="W30">
+        <v>235.80779999999999</v>
+      </c>
+      <c r="X30">
+        <v>232.79310000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>2008</v>
       </c>
-      <c r="D30">
-        <v>178.85</v>
-      </c>
-      <c r="E30">
-        <v>178.85</v>
-      </c>
-      <c r="F30">
-        <v>178.85</v>
-      </c>
-      <c r="G30">
-        <v>178.85</v>
-      </c>
-      <c r="H30">
-        <v>178.85</v>
-      </c>
-      <c r="I30">
-        <v>178.85</v>
-      </c>
-      <c r="J30">
-        <v>178.85</v>
-      </c>
-      <c r="K30">
-        <v>178.85</v>
-      </c>
-      <c r="L30">
-        <v>178.85</v>
-      </c>
-      <c r="M30">
-        <v>178.85</v>
-      </c>
-      <c r="N30">
-        <v>178.85</v>
-      </c>
-      <c r="O30">
-        <v>178.85</v>
-      </c>
-      <c r="P30">
-        <v>178.85</v>
-      </c>
-      <c r="Q30">
-        <v>178.85</v>
-      </c>
-      <c r="R30">
-        <v>178.85</v>
-      </c>
-      <c r="S30">
-        <v>178.85</v>
-      </c>
-      <c r="T30">
-        <v>178.85</v>
-      </c>
-      <c r="U30">
-        <v>178.85</v>
-      </c>
-      <c r="V30">
-        <v>178.85</v>
-      </c>
-      <c r="W30">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="D31">
+        <v>132.54140000000001</v>
+      </c>
+      <c r="E31">
+        <v>133.40799999999999</v>
+      </c>
+      <c r="F31">
+        <v>135.2364</v>
+      </c>
+      <c r="G31">
+        <v>138.14769999999999</v>
+      </c>
+      <c r="H31">
+        <v>139.02959999999999</v>
+      </c>
+      <c r="I31">
+        <v>136.91550000000001</v>
+      </c>
+      <c r="J31">
+        <v>137.23699999999999</v>
+      </c>
+      <c r="K31">
+        <v>139.8963</v>
+      </c>
+      <c r="L31">
+        <v>144.893</v>
+      </c>
+      <c r="M31">
+        <v>152.17339999999999</v>
+      </c>
+      <c r="N31">
+        <v>161.529</v>
+      </c>
+      <c r="O31">
+        <v>172.5514</v>
+      </c>
+      <c r="P31">
+        <v>184.649</v>
+      </c>
+      <c r="Q31">
+        <v>197.12200000000001</v>
+      </c>
+      <c r="R31">
+        <v>209.2749</v>
+      </c>
+      <c r="S31">
+        <v>220.5273</v>
+      </c>
+      <c r="T31">
+        <v>230.488</v>
+      </c>
+      <c r="U31">
+        <v>238.97450000000001</v>
+      </c>
+      <c r="V31">
+        <v>245.98589999999999</v>
+      </c>
+      <c r="W31">
+        <v>251.64779999999999</v>
+      </c>
+      <c r="X31">
+        <v>256.16590000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>2009</v>
       </c>
-      <c r="D31">
-        <v>178.85</v>
-      </c>
-      <c r="E31">
-        <v>178.85</v>
-      </c>
-      <c r="F31">
-        <v>178.85</v>
-      </c>
-      <c r="G31">
-        <v>178.85</v>
-      </c>
-      <c r="H31">
-        <v>178.85</v>
-      </c>
-      <c r="I31">
-        <v>178.85</v>
-      </c>
-      <c r="J31">
-        <v>178.85</v>
-      </c>
-      <c r="K31">
-        <v>178.85</v>
-      </c>
-      <c r="L31">
-        <v>178.85</v>
-      </c>
-      <c r="M31">
-        <v>178.85</v>
-      </c>
-      <c r="N31">
-        <v>178.85</v>
-      </c>
-      <c r="O31">
-        <v>178.85</v>
-      </c>
-      <c r="P31">
-        <v>178.85</v>
-      </c>
-      <c r="Q31">
-        <v>178.85</v>
-      </c>
-      <c r="R31">
-        <v>178.85</v>
-      </c>
-      <c r="S31">
-        <v>178.85</v>
-      </c>
-      <c r="T31">
-        <v>178.85</v>
-      </c>
-      <c r="U31">
-        <v>178.85</v>
-      </c>
-      <c r="V31">
-        <v>178.85</v>
-      </c>
-      <c r="W31">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="D32">
+        <v>129.05199999999999</v>
+      </c>
+      <c r="E32">
+        <v>129.52520000000001</v>
+      </c>
+      <c r="F32">
+        <v>130.52180000000001</v>
+      </c>
+      <c r="G32">
+        <v>132.1328</v>
+      </c>
+      <c r="H32">
+        <v>131.59049999999999</v>
+      </c>
+      <c r="I32">
+        <v>128.15719999999999</v>
+      </c>
+      <c r="J32">
+        <v>127.35380000000001</v>
+      </c>
+      <c r="K32">
+        <v>129.3511</v>
+      </c>
+      <c r="L32">
+        <v>134.36259999999999</v>
+      </c>
+      <c r="M32">
+        <v>142.4479</v>
+      </c>
+      <c r="N32">
+        <v>153.36320000000001</v>
+      </c>
+      <c r="O32">
+        <v>166.4657</v>
+      </c>
+      <c r="P32">
+        <v>180.71629999999999</v>
+      </c>
+      <c r="Q32">
+        <v>194.8141</v>
+      </c>
+      <c r="R32">
+        <v>207.44890000000001</v>
+      </c>
+      <c r="S32">
+        <v>217.58109999999999</v>
+      </c>
+      <c r="T32">
+        <v>224.63380000000001</v>
+      </c>
+      <c r="U32">
+        <v>228.53200000000001</v>
+      </c>
+      <c r="V32">
+        <v>229.60249999999999</v>
+      </c>
+      <c r="W32">
+        <v>228.4074</v>
+      </c>
+      <c r="X32">
+        <v>225.56970000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>2010</v>
       </c>
-      <c r="D32">
-        <v>178.85</v>
-      </c>
-      <c r="E32">
-        <v>178.85</v>
-      </c>
-      <c r="F32">
-        <v>178.85</v>
-      </c>
-      <c r="G32">
-        <v>178.85</v>
-      </c>
-      <c r="H32">
-        <v>178.85</v>
-      </c>
-      <c r="I32">
-        <v>178.85</v>
-      </c>
-      <c r="J32">
-        <v>178.85</v>
-      </c>
-      <c r="K32">
-        <v>178.85</v>
-      </c>
-      <c r="L32">
-        <v>178.85</v>
-      </c>
-      <c r="M32">
-        <v>178.85</v>
-      </c>
-      <c r="N32">
-        <v>178.85</v>
-      </c>
-      <c r="O32">
-        <v>178.85</v>
-      </c>
-      <c r="P32">
-        <v>178.85</v>
-      </c>
-      <c r="Q32">
-        <v>178.85</v>
-      </c>
-      <c r="R32">
-        <v>178.85</v>
-      </c>
-      <c r="S32">
-        <v>178.85</v>
-      </c>
-      <c r="T32">
-        <v>178.85</v>
-      </c>
-      <c r="U32">
-        <v>178.85</v>
-      </c>
-      <c r="V32">
-        <v>178.85</v>
-      </c>
-      <c r="W32">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
+      <c r="D33">
+        <v>133.3321</v>
+      </c>
+      <c r="E33">
+        <v>133.5163</v>
+      </c>
+      <c r="F33">
+        <v>133.90430000000001</v>
+      </c>
+      <c r="G33">
+        <v>134.57259999999999</v>
+      </c>
+      <c r="H33">
+        <v>133.2901</v>
+      </c>
+      <c r="I33">
+        <v>128.6157</v>
+      </c>
+      <c r="J33">
+        <v>126.6957</v>
+      </c>
+      <c r="K33">
+        <v>127.8039</v>
+      </c>
+      <c r="L33">
+        <v>132.2388</v>
+      </c>
+      <c r="M33">
+        <v>140.13509999999999</v>
+      </c>
+      <c r="N33">
+        <v>151.3125</v>
+      </c>
+      <c r="O33">
+        <v>165.15989999999999</v>
+      </c>
+      <c r="P33">
+        <v>180.5967</v>
+      </c>
+      <c r="Q33">
+        <v>196.17420000000001</v>
+      </c>
+      <c r="R33">
+        <v>210.33269999999999</v>
+      </c>
+      <c r="S33">
+        <v>221.73509999999999</v>
+      </c>
+      <c r="T33">
+        <v>229.5403</v>
+      </c>
+      <c r="U33">
+        <v>233.51179999999999</v>
+      </c>
+      <c r="V33">
+        <v>233.94239999999999</v>
+      </c>
+      <c r="W33">
+        <v>231.46960000000001</v>
+      </c>
+      <c r="X33">
+        <v>226.85390000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>2011</v>
       </c>
-      <c r="D33">
-        <v>178.85</v>
-      </c>
-      <c r="E33">
-        <v>178.85</v>
-      </c>
-      <c r="F33">
-        <v>178.85</v>
-      </c>
-      <c r="G33">
-        <v>178.85</v>
-      </c>
-      <c r="H33">
-        <v>178.85</v>
-      </c>
-      <c r="I33">
-        <v>178.85</v>
-      </c>
-      <c r="J33">
-        <v>178.85</v>
-      </c>
-      <c r="K33">
-        <v>178.85</v>
-      </c>
-      <c r="L33">
-        <v>178.85</v>
-      </c>
-      <c r="M33">
-        <v>178.85</v>
-      </c>
-      <c r="N33">
-        <v>178.85</v>
-      </c>
-      <c r="O33">
-        <v>178.85</v>
-      </c>
-      <c r="P33">
-        <v>178.85</v>
-      </c>
-      <c r="Q33">
-        <v>178.85</v>
-      </c>
-      <c r="R33">
-        <v>178.85</v>
-      </c>
-      <c r="S33">
-        <v>178.85</v>
-      </c>
-      <c r="T33">
-        <v>178.85</v>
-      </c>
-      <c r="U33">
-        <v>178.85</v>
-      </c>
-      <c r="V33">
-        <v>178.85</v>
-      </c>
-      <c r="W33">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="D34">
+        <v>103.61969999999999</v>
+      </c>
+      <c r="E34">
+        <v>101.8753</v>
+      </c>
+      <c r="F34">
+        <v>98.437899999999999</v>
+      </c>
+      <c r="G34">
+        <v>93.580500000000001</v>
+      </c>
+      <c r="H34">
+        <v>86.961399999999998</v>
+      </c>
+      <c r="I34">
+        <v>78.277100000000004</v>
+      </c>
+      <c r="J34">
+        <v>72.7226</v>
+      </c>
+      <c r="K34">
+        <v>70.853300000000004</v>
+      </c>
+      <c r="L34">
+        <v>73.158600000000007</v>
+      </c>
+      <c r="M34">
+        <v>80.116</v>
+      </c>
+      <c r="N34">
+        <v>92.1297</v>
+      </c>
+      <c r="O34">
+        <v>109.2264</v>
+      </c>
+      <c r="P34">
+        <v>130.5461</v>
+      </c>
+      <c r="Q34">
+        <v>153.91159999999999</v>
+      </c>
+      <c r="R34">
+        <v>175.9188</v>
+      </c>
+      <c r="S34">
+        <v>192.79060000000001</v>
+      </c>
+      <c r="T34">
+        <v>201.66120000000001</v>
+      </c>
+      <c r="U34">
+        <v>201.5307</v>
+      </c>
+      <c r="V34">
+        <v>193.35730000000001</v>
+      </c>
+      <c r="W34">
+        <v>179.3776</v>
+      </c>
+      <c r="X34">
+        <v>162.13130000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>2012</v>
       </c>
-      <c r="D34">
-        <v>178.85</v>
-      </c>
-      <c r="E34">
-        <v>178.85</v>
-      </c>
-      <c r="F34">
-        <v>178.85</v>
-      </c>
-      <c r="G34">
-        <v>178.85</v>
-      </c>
-      <c r="H34">
-        <v>178.85</v>
-      </c>
-      <c r="I34">
-        <v>178.85</v>
-      </c>
-      <c r="J34">
-        <v>178.85</v>
-      </c>
-      <c r="K34">
-        <v>178.85</v>
-      </c>
-      <c r="L34">
-        <v>178.85</v>
-      </c>
-      <c r="M34">
-        <v>178.85</v>
-      </c>
-      <c r="N34">
-        <v>178.85</v>
-      </c>
-      <c r="O34">
-        <v>178.85</v>
-      </c>
-      <c r="P34">
-        <v>178.85</v>
-      </c>
-      <c r="Q34">
-        <v>178.85</v>
-      </c>
-      <c r="R34">
-        <v>178.85</v>
-      </c>
-      <c r="S34">
-        <v>178.85</v>
-      </c>
-      <c r="T34">
-        <v>178.85</v>
-      </c>
-      <c r="U34">
-        <v>178.85</v>
-      </c>
-      <c r="V34">
-        <v>178.85</v>
-      </c>
-      <c r="W34">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="D35">
+        <v>126.1455</v>
+      </c>
+      <c r="E35">
+        <v>125.4808</v>
+      </c>
+      <c r="F35">
+        <v>124.1448</v>
+      </c>
+      <c r="G35">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H35">
+        <v>118.321</v>
+      </c>
+      <c r="I35">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J35">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K35">
+        <v>106.9545</v>
+      </c>
+      <c r="L35">
+        <v>110.6833</v>
+      </c>
+      <c r="M35">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N35">
+        <v>131.4879</v>
+      </c>
+      <c r="O35">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P35">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q35">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R35">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S35">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T35">
+        <v>225.3289</v>
+      </c>
+      <c r="U35">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V35">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W35">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X35">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>2013</v>
       </c>
-      <c r="D35">
-        <v>178.85</v>
-      </c>
-      <c r="E35">
-        <v>178.85</v>
-      </c>
-      <c r="F35">
-        <v>178.85</v>
-      </c>
-      <c r="G35">
-        <v>178.85</v>
-      </c>
-      <c r="H35">
-        <v>178.85</v>
-      </c>
-      <c r="I35">
-        <v>178.85</v>
-      </c>
-      <c r="J35">
-        <v>178.85</v>
-      </c>
-      <c r="K35">
-        <v>178.85</v>
-      </c>
-      <c r="L35">
-        <v>178.85</v>
-      </c>
-      <c r="M35">
-        <v>178.85</v>
-      </c>
-      <c r="N35">
-        <v>178.85</v>
-      </c>
-      <c r="O35">
-        <v>178.85</v>
-      </c>
-      <c r="P35">
-        <v>178.85</v>
-      </c>
-      <c r="Q35">
-        <v>178.85</v>
-      </c>
-      <c r="R35">
-        <v>178.85</v>
-      </c>
-      <c r="S35">
-        <v>178.85</v>
-      </c>
-      <c r="T35">
-        <v>178.85</v>
-      </c>
-      <c r="U35">
-        <v>178.85</v>
-      </c>
-      <c r="V35">
-        <v>178.85</v>
-      </c>
-      <c r="W35">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
+      <c r="D36">
+        <v>126.1455</v>
+      </c>
+      <c r="E36">
+        <v>125.4808</v>
+      </c>
+      <c r="F36">
+        <v>124.1448</v>
+      </c>
+      <c r="G36">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H36">
+        <v>118.321</v>
+      </c>
+      <c r="I36">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J36">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K36">
+        <v>106.9545</v>
+      </c>
+      <c r="L36">
+        <v>110.6833</v>
+      </c>
+      <c r="M36">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N36">
+        <v>131.4879</v>
+      </c>
+      <c r="O36">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P36">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q36">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R36">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S36">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T36">
+        <v>225.3289</v>
+      </c>
+      <c r="U36">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V36">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W36">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X36">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>2014</v>
       </c>
-      <c r="D36">
-        <v>178.85</v>
-      </c>
-      <c r="E36">
-        <v>178.85</v>
-      </c>
-      <c r="F36">
-        <v>178.85</v>
-      </c>
-      <c r="G36">
-        <v>178.85</v>
-      </c>
-      <c r="H36">
-        <v>178.85</v>
-      </c>
-      <c r="I36">
-        <v>178.85</v>
-      </c>
-      <c r="J36">
-        <v>178.85</v>
-      </c>
-      <c r="K36">
-        <v>178.85</v>
-      </c>
-      <c r="L36">
-        <v>178.85</v>
-      </c>
-      <c r="M36">
-        <v>178.85</v>
-      </c>
-      <c r="N36">
-        <v>178.85</v>
-      </c>
-      <c r="O36">
-        <v>178.85</v>
-      </c>
-      <c r="P36">
-        <v>178.85</v>
-      </c>
-      <c r="Q36">
-        <v>178.85</v>
-      </c>
-      <c r="R36">
-        <v>178.85</v>
-      </c>
-      <c r="S36">
-        <v>178.85</v>
-      </c>
-      <c r="T36">
-        <v>178.85</v>
-      </c>
-      <c r="U36">
-        <v>178.85</v>
-      </c>
-      <c r="V36">
-        <v>178.85</v>
-      </c>
-      <c r="W36">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="D37">
+        <v>126.1455</v>
+      </c>
+      <c r="E37">
+        <v>125.4808</v>
+      </c>
+      <c r="F37">
+        <v>124.1448</v>
+      </c>
+      <c r="G37">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H37">
+        <v>118.321</v>
+      </c>
+      <c r="I37">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J37">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K37">
+        <v>106.9545</v>
+      </c>
+      <c r="L37">
+        <v>110.6833</v>
+      </c>
+      <c r="M37">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N37">
+        <v>131.4879</v>
+      </c>
+      <c r="O37">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P37">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q37">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R37">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S37">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T37">
+        <v>225.3289</v>
+      </c>
+      <c r="U37">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V37">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W37">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X37">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>2015</v>
       </c>
-      <c r="D37">
-        <v>178.85</v>
-      </c>
-      <c r="E37">
-        <v>178.85</v>
-      </c>
-      <c r="F37">
-        <v>178.85</v>
-      </c>
-      <c r="G37">
-        <v>178.85</v>
-      </c>
-      <c r="H37">
-        <v>178.85</v>
-      </c>
-      <c r="I37">
-        <v>178.85</v>
-      </c>
-      <c r="J37">
-        <v>178.85</v>
-      </c>
-      <c r="K37">
-        <v>178.85</v>
-      </c>
-      <c r="L37">
-        <v>178.85</v>
-      </c>
-      <c r="M37">
-        <v>178.85</v>
-      </c>
-      <c r="N37">
-        <v>178.85</v>
-      </c>
-      <c r="O37">
-        <v>178.85</v>
-      </c>
-      <c r="P37">
-        <v>178.85</v>
-      </c>
-      <c r="Q37">
-        <v>178.85</v>
-      </c>
-      <c r="R37">
-        <v>178.85</v>
-      </c>
-      <c r="S37">
-        <v>178.85</v>
-      </c>
-      <c r="T37">
-        <v>178.85</v>
-      </c>
-      <c r="U37">
-        <v>178.85</v>
-      </c>
-      <c r="V37">
-        <v>178.85</v>
-      </c>
-      <c r="W37">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="D38">
+        <v>126.1455</v>
+      </c>
+      <c r="E38">
+        <v>125.4808</v>
+      </c>
+      <c r="F38">
+        <v>124.1448</v>
+      </c>
+      <c r="G38">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H38">
+        <v>118.321</v>
+      </c>
+      <c r="I38">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J38">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K38">
+        <v>106.9545</v>
+      </c>
+      <c r="L38">
+        <v>110.6833</v>
+      </c>
+      <c r="M38">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N38">
+        <v>131.4879</v>
+      </c>
+      <c r="O38">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P38">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q38">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R38">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S38">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T38">
+        <v>225.3289</v>
+      </c>
+      <c r="U38">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V38">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W38">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X38">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>2016</v>
       </c>
-      <c r="D38">
-        <v>178.85</v>
-      </c>
-      <c r="E38">
-        <v>178.85</v>
-      </c>
-      <c r="F38">
-        <v>178.85</v>
-      </c>
-      <c r="G38">
-        <v>178.85</v>
-      </c>
-      <c r="H38">
-        <v>178.85</v>
-      </c>
-      <c r="I38">
-        <v>178.85</v>
-      </c>
-      <c r="J38">
-        <v>178.85</v>
-      </c>
-      <c r="K38">
-        <v>178.85</v>
-      </c>
-      <c r="L38">
-        <v>178.85</v>
-      </c>
-      <c r="M38">
-        <v>178.85</v>
-      </c>
-      <c r="N38">
-        <v>178.85</v>
-      </c>
-      <c r="O38">
-        <v>178.85</v>
-      </c>
-      <c r="P38">
-        <v>178.85</v>
-      </c>
-      <c r="Q38">
-        <v>178.85</v>
-      </c>
-      <c r="R38">
-        <v>178.85</v>
-      </c>
-      <c r="S38">
-        <v>178.85</v>
-      </c>
-      <c r="T38">
-        <v>178.85</v>
-      </c>
-      <c r="U38">
-        <v>178.85</v>
-      </c>
-      <c r="V38">
-        <v>178.85</v>
-      </c>
-      <c r="W38">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="D39">
+        <v>126.1455</v>
+      </c>
+      <c r="E39">
+        <v>125.4808</v>
+      </c>
+      <c r="F39">
+        <v>124.1448</v>
+      </c>
+      <c r="G39">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H39">
+        <v>118.321</v>
+      </c>
+      <c r="I39">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J39">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K39">
+        <v>106.9545</v>
+      </c>
+      <c r="L39">
+        <v>110.6833</v>
+      </c>
+      <c r="M39">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N39">
+        <v>131.4879</v>
+      </c>
+      <c r="O39">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P39">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q39">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R39">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S39">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T39">
+        <v>225.3289</v>
+      </c>
+      <c r="U39">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V39">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W39">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X39">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>2017</v>
       </c>
-      <c r="D39">
-        <v>178.85</v>
-      </c>
-      <c r="E39">
-        <v>178.85</v>
-      </c>
-      <c r="F39">
-        <v>178.85</v>
-      </c>
-      <c r="G39">
-        <v>178.85</v>
-      </c>
-      <c r="H39">
-        <v>178.85</v>
-      </c>
-      <c r="I39">
-        <v>178.85</v>
-      </c>
-      <c r="J39">
-        <v>178.85</v>
-      </c>
-      <c r="K39">
-        <v>178.85</v>
-      </c>
-      <c r="L39">
-        <v>178.85</v>
-      </c>
-      <c r="M39">
-        <v>178.85</v>
-      </c>
-      <c r="N39">
-        <v>178.85</v>
-      </c>
-      <c r="O39">
-        <v>178.85</v>
-      </c>
-      <c r="P39">
-        <v>178.85</v>
-      </c>
-      <c r="Q39">
-        <v>178.85</v>
-      </c>
-      <c r="R39">
-        <v>178.85</v>
-      </c>
-      <c r="S39">
-        <v>178.85</v>
-      </c>
-      <c r="T39">
-        <v>178.85</v>
-      </c>
-      <c r="U39">
-        <v>178.85</v>
-      </c>
-      <c r="V39">
-        <v>178.85</v>
-      </c>
-      <c r="W39">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="D40">
+        <v>126.1455</v>
+      </c>
+      <c r="E40">
+        <v>125.4808</v>
+      </c>
+      <c r="F40">
+        <v>124.1448</v>
+      </c>
+      <c r="G40">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H40">
+        <v>118.321</v>
+      </c>
+      <c r="I40">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J40">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K40">
+        <v>106.9545</v>
+      </c>
+      <c r="L40">
+        <v>110.6833</v>
+      </c>
+      <c r="M40">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N40">
+        <v>131.4879</v>
+      </c>
+      <c r="O40">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P40">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q40">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R40">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S40">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T40">
+        <v>225.3289</v>
+      </c>
+      <c r="U40">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V40">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W40">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X40">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>2018</v>
       </c>
-      <c r="D40">
-        <v>178.85</v>
-      </c>
-      <c r="E40">
-        <v>178.85</v>
-      </c>
-      <c r="F40">
-        <v>178.85</v>
-      </c>
-      <c r="G40">
-        <v>178.85</v>
-      </c>
-      <c r="H40">
-        <v>178.85</v>
-      </c>
-      <c r="I40">
-        <v>178.85</v>
-      </c>
-      <c r="J40">
-        <v>178.85</v>
-      </c>
-      <c r="K40">
-        <v>178.85</v>
-      </c>
-      <c r="L40">
-        <v>178.85</v>
-      </c>
-      <c r="M40">
-        <v>178.85</v>
-      </c>
-      <c r="N40">
-        <v>178.85</v>
-      </c>
-      <c r="O40">
-        <v>178.85</v>
-      </c>
-      <c r="P40">
-        <v>178.85</v>
-      </c>
-      <c r="Q40">
-        <v>178.85</v>
-      </c>
-      <c r="R40">
-        <v>178.85</v>
-      </c>
-      <c r="S40">
-        <v>178.85</v>
-      </c>
-      <c r="T40">
-        <v>178.85</v>
-      </c>
-      <c r="U40">
-        <v>178.85</v>
-      </c>
-      <c r="V40">
-        <v>178.85</v>
-      </c>
-      <c r="W40">
-        <v>178.85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
+      <c r="D41">
+        <v>126.1455</v>
+      </c>
+      <c r="E41">
+        <v>125.4808</v>
+      </c>
+      <c r="F41">
+        <v>124.1448</v>
+      </c>
+      <c r="G41">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H41">
+        <v>118.321</v>
+      </c>
+      <c r="I41">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J41">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K41">
+        <v>106.9545</v>
+      </c>
+      <c r="L41">
+        <v>110.6833</v>
+      </c>
+      <c r="M41">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N41">
+        <v>131.4879</v>
+      </c>
+      <c r="O41">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P41">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q41">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R41">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S41">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T41">
+        <v>225.3289</v>
+      </c>
+      <c r="U41">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V41">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W41">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X41">
+        <v>201.0616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>2019</v>
       </c>
-      <c r="D41">
-        <v>178.85</v>
-      </c>
-      <c r="E41">
-        <v>178.85</v>
-      </c>
-      <c r="F41">
-        <v>178.85</v>
-      </c>
-      <c r="G41">
-        <v>178.85</v>
-      </c>
-      <c r="H41">
-        <v>178.85</v>
-      </c>
-      <c r="I41">
-        <v>178.85</v>
-      </c>
-      <c r="J41">
-        <v>178.85</v>
-      </c>
-      <c r="K41">
-        <v>178.85</v>
-      </c>
-      <c r="L41">
-        <v>178.85</v>
-      </c>
-      <c r="M41">
-        <v>178.85</v>
-      </c>
-      <c r="N41">
-        <v>178.85</v>
-      </c>
-      <c r="O41">
-        <v>178.85</v>
-      </c>
-      <c r="P41">
-        <v>178.85</v>
-      </c>
-      <c r="Q41">
-        <v>178.85</v>
-      </c>
-      <c r="R41">
-        <v>178.85</v>
-      </c>
-      <c r="S41">
-        <v>178.85</v>
-      </c>
-      <c r="T41">
-        <v>178.85</v>
-      </c>
-      <c r="U41">
-        <v>178.85</v>
-      </c>
-      <c r="V41">
-        <v>178.85</v>
-      </c>
-      <c r="W41">
-        <v>178.85</v>
+      <c r="D42">
+        <v>126.1455</v>
+      </c>
+      <c r="E42">
+        <v>125.4808</v>
+      </c>
+      <c r="F42">
+        <v>124.1448</v>
+      </c>
+      <c r="G42">
+        <v>122.24339999999999</v>
+      </c>
+      <c r="H42">
+        <v>118.321</v>
+      </c>
+      <c r="I42">
+        <v>111.29989999999999</v>
+      </c>
+      <c r="J42">
+        <v>107.32980000000001</v>
+      </c>
+      <c r="K42">
+        <v>106.9545</v>
+      </c>
+      <c r="L42">
+        <v>110.6833</v>
+      </c>
+      <c r="M42">
+        <v>118.85590000000001</v>
+      </c>
+      <c r="N42">
+        <v>131.4879</v>
+      </c>
+      <c r="O42">
+        <v>148.04499999999999</v>
+      </c>
+      <c r="P42">
+        <v>167.22630000000001</v>
+      </c>
+      <c r="Q42">
+        <v>186.94229999999999</v>
+      </c>
+      <c r="R42">
+        <v>204.64439999999999</v>
+      </c>
+      <c r="S42">
+        <v>217.95769999999999</v>
+      </c>
+      <c r="T42">
+        <v>225.3289</v>
+      </c>
+      <c r="U42">
+        <v>226.36619999999999</v>
+      </c>
+      <c r="V42">
+        <v>221.74359999999999</v>
+      </c>
+      <c r="W42">
+        <v>212.80459999999999</v>
+      </c>
+      <c r="X42">
+        <v>201.0616</v>
       </c>
     </row>
   </sheetData>
@@ -18094,9 +18288,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
